--- a/PrestazioniTotali.xlsx
+++ b/PrestazioniTotali.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huawei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3A8DCF-9F5A-40EF-B5EC-FF15BE5073AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87614B-2FF6-4D17-9E53-A7695689557D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PrestazioniTotaliB" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="18">
   <si>
     <t>Neo4j</t>
   </si>
@@ -83,16 +83,20 @@
   <si>
     <t>media</t>
   </si>
+  <si>
+    <t>Query1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -180,6 +184,17 @@
       <sz val="10"/>
       <name val="Liberation Sans"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -250,12 +265,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -286,21 +301,6 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -414,16 +414,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -448,11 +487,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -460,7 +496,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,53 +508,97 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -626,7 +705,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13416088077496799"/>
+          <c:y val="0.21868581798469588"/>
+          <c:w val="0.83968392998399988"/>
+          <c:h val="0.60712717664649696"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -683,7 +772,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>189.71</c:v>
+                  <c:v>228.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>196.93</c:v>
@@ -692,7 +781,7 @@
                   <c:v>189.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>228.97</c:v>
+                  <c:v>181.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,18 +841,18 @@
             <c:numRef>
               <c:f>PrestazioniTotaliB!$K$14:$N$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.00">
                   <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="General">
                   <c:v>0.42</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
                   <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
@@ -821,14 +910,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.46729179508773777"/>
-              <c:y val="0.89366428116920504"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -859,7 +940,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -905,6 +986,7 @@
       <c:valAx>
         <c:axId val="1171800448"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -944,8 +1026,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Tmepi (msec)</a:t>
+                  <a:t>Tempi</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> (msec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -979,7 +1066,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1200,16 +1287,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>13.218749100741023</c:v>
+                    <c:v>1.2567570690816883</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>12.302179564694766</c:v>
+                    <c:v>2.7885462059442685</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>13.822584781206222</c:v>
+                    <c:v>1.5146069402422466</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>14.583295431459856</c:v>
+                    <c:v>1.5299308301739198</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1265,16 +1352,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13.53</c:v>
+                  <c:v>14.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.420000000000002</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.14</c:v>
+                  <c:v>12.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.2</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,16 +1407,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5.1857815109360121</c:v>
+                    <c:v>0.7525690873503349</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.219821598560745</c:v>
+                    <c:v>1.0474865022496551</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.91132837093902519</c:v>
+                    <c:v>0.93786133900962509</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.5436423392602694</c:v>
+                    <c:v>1.5920632473202141</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1426,6 +1513,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Dataset %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1521,6 +1633,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tempi (msec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1700,7 +1837,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> 1- </a:t>
+              <a:t> 1 - </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT"/>
@@ -1750,7 +1887,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PrestazioniTotaliB!$J$17</c:f>
+              <c:f>PrestazioniTotaliB!$P$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1780,16 +1917,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>10.283644322629712</c:v>
+                    <c:v>2.5753810218343047</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.638487832118459</c:v>
+                    <c:v>2.1380965008362485</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>10.223127935576679</c:v>
+                    <c:v>1.3303315549693517</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>12.640565457881053</c:v>
+                    <c:v>1.6910536749004097</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1819,7 +1956,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>PrestazioniTotaliB!$K$16:$N$16</c:f>
+              <c:f>PrestazioniTotaliB!$Q$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1840,21 +1977,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PrestazioniTotaliB!$K$17:$N$17</c:f>
+              <c:f>PrestazioniTotaliB!$Q$13:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29.55</c:v>
+                  <c:v>30.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.18</c:v>
+                  <c:v>29.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.04</c:v>
+                  <c:v>27.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.53</c:v>
+                  <c:v>27.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,7 +2007,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PrestazioniTotaliB!$J$18</c:f>
+              <c:f>PrestazioniTotaliB!$P$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1900,16 +2037,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.6849024374042978E-2</c:v>
+                    <c:v>3.226315890271184E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3920541951588797E-2</c:v>
+                    <c:v>8.875277957824208E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.4738522489019044E-2</c:v>
+                    <c:v>7.2532810901700375E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.3804267973355702E-2</c:v>
+                    <c:v>2.4863894815760419E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1939,7 +2076,7 @@
           </c:errBars>
           <c:cat>
             <c:numRef>
-              <c:f>PrestazioniTotaliB!$K$16:$N$16</c:f>
+              <c:f>PrestazioniTotaliB!$Q$12:$T$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1960,21 +2097,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PrestazioniTotaliB!$K$18:$N$18</c:f>
+              <c:f>PrestazioniTotaliB!$Q$14:$T$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9.2999999999999999E-2</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9600000000000004E-2</c:v>
+                  <c:v>9.0999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23630000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.124</c:v>
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,6 +2252,7 @@
       <c:valAx>
         <c:axId val="933565120"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2440,16 +2578,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>112.03</c:v>
+                  <c:v>129.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.85</c:v>
+                  <c:v>115.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>109.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129.26</c:v>
+                  <c:v>102.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,6 +2797,7 @@
       <c:valAx>
         <c:axId val="1186231952"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2959,16 +3098,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5.680473470312382</c:v>
+                    <c:v>2.5858320726126429</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.1356777964044662</c:v>
+                    <c:v>1.0107569226597612</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.6177237831576479</c:v>
+                    <c:v>0.45417809853141994</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.5491219745001716</c:v>
+                    <c:v>0.16517969364373092</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3027,13 +3166,13 @@
                   <c:v>30.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.7</c:v>
+                  <c:v>27.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.57</c:v>
+                  <c:v>25.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.27</c:v>
+                  <c:v>24.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,16 +3218,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>2.5648309887051107E-2</c:v>
+                    <c:v>6.8572809108528223E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.4246491203920851E-2</c:v>
+                    <c:v>5.6264079311378768E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.4415648346077857E-2</c:v>
+                    <c:v>3.1104316706921011E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4769112155580797E-2</c:v>
+                    <c:v>2.9435733020352186E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3141,10 +3280,10 @@
             <c:numRef>
               <c:f>PrestazioniTotaliB!$Q$49:$T$49</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.17169999999999999</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.10829999999999999</c:v>
@@ -3152,7 +3291,7 @@
                 <c:pt idx="2">
                   <c:v>8.3299999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="General">
                   <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3299,6 +3438,7 @@
       <c:valAx>
         <c:axId val="1038464848"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3536,6 +3676,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32229794548147345"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3624,7 +3772,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>100.2</c:v>
+                  <c:v>120.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>114.54</c:v>
@@ -3633,7 +3781,7 @@
                   <c:v>101.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.21</c:v>
+                  <c:v>95.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3851,6 +3999,7 @@
       <c:valAx>
         <c:axId val="1041626096"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4159,16 +4308,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>4.6996636261747398</c:v>
+                    <c:v>1.6604152708499216</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.6046552285912936</c:v>
+                    <c:v>1.6998828766626182</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.8072228785689681</c:v>
+                    <c:v>1.30048414054453</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7740608051458286</c:v>
+                    <c:v>0.55605335672283018</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4230,10 +4379,10 @@
                   <c:v>28.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.5</c:v>
+                  <c:v>26.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.07</c:v>
+                  <c:v>26.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4269,7 +4418,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:errBars>
-            <c:errBarType val="plus"/>
+            <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
@@ -4279,16 +4428,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.6697578034512026E-2</c:v>
+                    <c:v>5.117915406396418E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3689832303909967E-2</c:v>
+                    <c:v>9.1783315028002768E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.6193410185682398E-2</c:v>
+                    <c:v>4.2019617977713452E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.8722191574540925E-2</c:v>
+                    <c:v>3.5783882874343333E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4344,16 +4493,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1003</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12529999999999999</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1699999999999995E-2</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4494,6 +4643,7 @@
       <c:valAx>
         <c:axId val="1288900512"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5041,6 +5191,7 @@
       <c:valAx>
         <c:axId val="1426565648"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5349,16 +5500,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>5.3858604019552621</c:v>
+                    <c:v>0.96860210645804123</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.7539490303611815</c:v>
+                    <c:v>1.1987245885977853</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.1084271641925723</c:v>
+                    <c:v>0.83480465189983588</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.3493513194022775</c:v>
+                    <c:v>0.59416200345982062</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5420,10 +5571,10 @@
                   <c:v>7.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.49</c:v>
+                  <c:v>7.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.57</c:v>
+                  <c:v>7.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5469,16 +5620,16 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>1.6692943894628748E-2</c:v>
+                    <c:v>3.8926110650627371E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3777152170343475E-2</c:v>
+                    <c:v>6.0398370152952791E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.3213409132428227E-2</c:v>
+                    <c:v>6.151868268783783E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.3146881846067479E-2</c:v>
+                    <c:v>5.2753421701477801E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5534,16 +5685,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.8000000000000004E-2</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1000000000000003E-2</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1167</c:v>
+                  <c:v>9.7000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1163</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5676,6 +5827,7 @@
       <c:valAx>
         <c:axId val="1434279280"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -11842,15 +11994,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266702</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>385235</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>220135</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>59267</xdr:rowOff>
+      <xdr:colOff>338668</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11878,15 +12030,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>579967</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:colOff>783167</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>270933</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>474133</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42331</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11913,16 +12065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8467</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414867</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>33867</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11950,15 +12102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>700088</xdr:colOff>
+      <xdr:colOff>700089</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>137584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>461963</xdr:colOff>
+      <xdr:colOff>461964</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>137584</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11986,15 +12138,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>410634</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>376767</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>12701</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>160866</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>825501</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12022,15 +12174,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>448734</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:colOff>575734</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12058,15 +12210,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>402167</xdr:colOff>
+      <xdr:colOff>410634</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>4234</xdr:colOff>
+      <xdr:colOff>12701</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:rowOff>84668</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12094,15 +12246,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>550333</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:colOff>804333</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>16934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>313266</xdr:colOff>
+      <xdr:colOff>567266</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12129,16 +12281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>402167</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4235</xdr:colOff>
       <xdr:row>153</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:rowOff>16932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>4234</xdr:colOff>
+      <xdr:colOff>29635</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12166,15 +12318,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>478367</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>143933</xdr:rowOff>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>16932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>8466</xdr:rowOff>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12501,1234 +12653,1237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="I58" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="4" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
-    <col min="17" max="17" width="13.109375" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" customWidth="1"/>
+    <col min="1" max="4" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.8" thickBot="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:20" ht="13.5" thickBot="1">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="54"/>
+      <c r="G2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="35" t="s">
+      <c r="H2" s="54"/>
+      <c r="J2" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="36"/>
+      <c r="R2" s="53"/>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2">
-        <v>189.71</v>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
+        <v>228.97</v>
       </c>
       <c r="B4">
         <v>0.36</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>196.93</v>
       </c>
       <c r="D4">
         <v>0.3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>189.36</v>
       </c>
       <c r="F4">
         <v>0.42</v>
       </c>
-      <c r="G4" s="2">
-        <v>228.97</v>
+      <c r="G4" s="1">
+        <v>181.71</v>
       </c>
       <c r="H4">
         <v>0.34</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="8">
-        <v>189.71</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="K4" s="6">
+        <v>228.97</v>
+      </c>
+      <c r="L4" s="7">
         <v>0.36</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>196.93</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <v>0.3</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>189.36</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <v>0.42</v>
       </c>
-      <c r="Q4" s="8">
-        <v>228.97</v>
-      </c>
-      <c r="R4" s="14">
+      <c r="Q4" s="6">
+        <v>181.71</v>
+      </c>
+      <c r="R4" s="10">
         <v>0.34</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2">
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
         <v>46.72</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>35.56</v>
       </c>
       <c r="D5">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>33.29</v>
+      </c>
+      <c r="F5">
         <v>0.1</v>
       </c>
-      <c r="E5" s="2">
-        <v>33.29</v>
-      </c>
-      <c r="F5">
-        <v>0.22</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>42.14</v>
       </c>
       <c r="H5">
-        <v>0.13</v>
-      </c>
-      <c r="J5" s="13" t="s">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="8">
         <f t="shared" ref="K5:R5" si="0">AVERAGE(A5:A34)</f>
-        <v>29.554666666666659</v>
-      </c>
-      <c r="L5" s="11">
+        <v>30.124333333333322</v>
+      </c>
+      <c r="L5" s="38">
         <f t="shared" si="0"/>
-        <v>9.2999999999999985E-2</v>
-      </c>
-      <c r="M5" s="10">
+        <v>0.12399999999999997</v>
+      </c>
+      <c r="M5" s="8">
         <f t="shared" si="0"/>
-        <v>30.176666666666669</v>
-      </c>
-      <c r="N5" s="11">
+        <v>29.476666666666674</v>
+      </c>
+      <c r="N5" s="38">
+        <f t="shared" si="0"/>
+        <v>9.1000000000000039E-2</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="0"/>
+        <v>27.441333333333333</v>
+      </c>
+      <c r="P5" s="38">
+        <f t="shared" si="0"/>
+        <v>9.4333333333333352E-2</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="0"/>
+        <v>27.332000000000004</v>
+      </c>
+      <c r="R5" s="42">
         <f t="shared" si="0"/>
         <v>7.9666666666666705E-2</v>
       </c>
-      <c r="O5" s="10">
-        <f t="shared" si="0"/>
-        <v>29.041333333333334</v>
-      </c>
-      <c r="P5" s="11">
-        <f t="shared" si="0"/>
-        <v>0.2363333333333334</v>
-      </c>
-      <c r="Q5" s="10">
-        <f t="shared" si="0"/>
-        <v>27.532000000000004</v>
-      </c>
-      <c r="R5" s="15">
-        <f t="shared" si="0"/>
-        <v>0.12399999999999997</v>
-      </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2">
+    <row r="6" spans="1:20">
+      <c r="A6" s="1">
         <v>41.65</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.11</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>44.73</v>
       </c>
       <c r="D6">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30.48</v>
+      </c>
+      <c r="F6">
         <v>0.08</v>
       </c>
-      <c r="E6" s="2">
-        <v>30.48</v>
-      </c>
-      <c r="F6">
-        <v>0.22</v>
-      </c>
-      <c r="G6" s="2">
-        <v>31.76</v>
+      <c r="G6" s="1">
+        <v>29.76</v>
       </c>
       <c r="H6">
+        <v>0.08</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2.58</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="N6" s="7">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1.33</v>
+      </c>
+      <c r="P6" s="7">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="R6" s="10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1">
+        <v>41.07</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43.74</v>
+      </c>
+      <c r="D7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>28.77</v>
+      </c>
+      <c r="F7">
+        <v>0.08</v>
+      </c>
+      <c r="G7" s="1">
+        <v>28.33</v>
+      </c>
+      <c r="H7">
+        <v>0.08</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>39.15</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.11</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="8">
-        <v>10.28</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="M6" s="8">
-        <v>10.64</v>
-      </c>
-      <c r="N6" s="9">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="O6" s="8">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1.47E-2</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>12.64</v>
-      </c>
-      <c r="R6" s="14">
-        <v>1.38E-2</v>
+      <c r="C8" s="1">
+        <v>42.54</v>
+      </c>
+      <c r="D8">
+        <v>0.11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29.16</v>
+      </c>
+      <c r="F8">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="1">
+        <v>29.47</v>
+      </c>
+      <c r="H8">
+        <v>0.08</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" ref="K8:R8" si="1">_xlfn.STDEV.P(A5:A34)</f>
+        <v>7.1970418382987731</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="1"/>
+        <v>9.1651513899116827E-3</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="1"/>
+        <v>5.9750265457336749</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="1"/>
+        <v>2.5212430796467317E-2</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="1"/>
+        <v>3.717683627684778</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="1"/>
+        <v>2.0604745947367345E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="1"/>
+        <v>4.7257411411685757</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="1"/>
+        <v>7.0632067001390299E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2">
-        <v>41.07</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43.74</v>
-      </c>
-      <c r="D7">
+    <row r="9" spans="1:20" ht="13.5" thickBot="1">
+      <c r="A9" s="1">
+        <v>34.75</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44.07</v>
+      </c>
+      <c r="D9">
+        <v>0.13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>29.48</v>
+      </c>
+      <c r="F9">
         <v>0.08</v>
       </c>
-      <c r="E7" s="2">
-        <v>28.77</v>
-      </c>
-      <c r="F7">
-        <v>0.22</v>
-      </c>
-      <c r="G7" s="2">
-        <v>28.33</v>
-      </c>
-      <c r="H7">
+      <c r="G9" s="1">
+        <v>28.03</v>
+      </c>
+      <c r="H9">
+        <v>0.08</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="12">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,K8, 30)</f>
+        <v>2.5753810218343047</v>
+      </c>
+      <c r="L9" s="13">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,L8,31)</f>
+        <v>3.226315890271184E-3</v>
+      </c>
+      <c r="M9" s="12">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,M8,30)</f>
+        <v>2.1380965008362485</v>
+      </c>
+      <c r="N9" s="13">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,N8,31)</f>
+        <v>8.875277957824208E-3</v>
+      </c>
+      <c r="O9" s="12">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,O8,30)</f>
+        <v>1.3303315549693517</v>
+      </c>
+      <c r="P9" s="13">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,31)</f>
+        <v>7.2532810901700375E-3</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,Q8,30)</f>
+        <v>1.6910536749004097</v>
+      </c>
+      <c r="R9" s="14">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,R8,31)</f>
+        <v>2.4863894815760419E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>31.06</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>27.82</v>
+      </c>
+      <c r="D10">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>28.16</v>
+      </c>
+      <c r="F10">
+        <v>0.08</v>
+      </c>
+      <c r="G10" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="H10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>29.99</v>
+      </c>
+      <c r="B11" s="2">
         <v>0.13</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="14"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2">
-        <v>39.15</v>
-      </c>
-      <c r="B8">
-        <v>0.09</v>
-      </c>
-      <c r="C8" s="2">
-        <v>42.54</v>
-      </c>
-      <c r="D8">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="2">
-        <v>29.16</v>
-      </c>
-      <c r="F8">
-        <v>0.22</v>
-      </c>
-      <c r="G8" s="2">
-        <v>29.47</v>
-      </c>
-      <c r="H8">
-        <v>0.11</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="10">
-        <f t="shared" ref="K8:R8" si="1">_xlfn.STDEV.P(A4:A34)</f>
-        <v>29.213245157151963</v>
-      </c>
-      <c r="L8" s="11">
-        <f t="shared" si="1"/>
-        <v>4.7863837396106904E-2</v>
-      </c>
-      <c r="M8" s="10">
-        <f t="shared" si="1"/>
-        <v>30.221266254527698</v>
-      </c>
-      <c r="N8" s="11">
-        <f t="shared" si="1"/>
-        <v>3.9544755924443606E-2</v>
-      </c>
-      <c r="O8" s="10">
-        <f t="shared" si="1"/>
-        <v>29.161376819740394</v>
-      </c>
-      <c r="P8" s="11">
-        <f t="shared" si="1"/>
-        <v>4.1868432747954959E-2</v>
-      </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="1"/>
-        <v>35.908664872189647</v>
-      </c>
-      <c r="R8" s="15">
-        <f t="shared" si="1"/>
-        <v>3.9214450818106344E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="13.8" thickBot="1">
-      <c r="A9" s="2">
-        <v>34.75</v>
-      </c>
-      <c r="B9">
-        <v>0.09</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44.07</v>
-      </c>
-      <c r="D9">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="2">
-        <v>29.48</v>
-      </c>
-      <c r="F9">
-        <v>0.22</v>
-      </c>
-      <c r="G9" s="2">
-        <v>32.03</v>
-      </c>
-      <c r="H9">
-        <v>0.13</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="17">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,K8, 31)</f>
-        <v>10.283644322629712</v>
-      </c>
-      <c r="L9" s="18">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,L8,31)</f>
-        <v>1.6849024374042978E-2</v>
-      </c>
-      <c r="M9" s="17">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,M8,31)</f>
-        <v>10.638487832118459</v>
-      </c>
-      <c r="N9" s="18">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,N8,31)</f>
-        <v>1.3920541951588797E-2</v>
-      </c>
-      <c r="O9" s="17">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,O5,31)</f>
-        <v>10.223127935576679</v>
-      </c>
-      <c r="P9" s="18">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,31)</f>
-        <v>1.4738522489019044E-2</v>
-      </c>
-      <c r="Q9" s="17">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,Q8,31)</f>
-        <v>12.640565457881053</v>
-      </c>
-      <c r="R9" s="19">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,R8,31)</f>
-        <v>1.3804267973355702E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2">
-        <v>31.06</v>
-      </c>
-      <c r="B10">
-        <v>0.09</v>
-      </c>
-      <c r="C10" s="2">
-        <v>27.82</v>
-      </c>
-      <c r="D10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>28.16</v>
-      </c>
-      <c r="F10">
-        <v>0.22</v>
-      </c>
-      <c r="G10" s="2">
-        <v>27.6</v>
-      </c>
-      <c r="H10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="2">
-        <v>29.99</v>
-      </c>
-      <c r="B11">
-        <v>0.09</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>27.29</v>
       </c>
       <c r="D11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>31.28</v>
       </c>
       <c r="F11">
-        <v>0.21</v>
-      </c>
-      <c r="G11" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G11" s="1">
         <v>26.68</v>
       </c>
       <c r="H11">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2">
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
         <v>28.52</v>
       </c>
-      <c r="B12">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C12" s="1">
         <v>26.8</v>
       </c>
       <c r="D12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>36.99</v>
       </c>
       <c r="F12">
-        <v>0.21</v>
-      </c>
-      <c r="G12" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="1">
         <v>27.49</v>
       </c>
       <c r="H12">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>0.75</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>0.5</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>0.25</v>
       </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2">
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
         <v>30.22</v>
       </c>
-      <c r="B13">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C13" s="1">
         <v>26.63</v>
       </c>
       <c r="D13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>30.7</v>
       </c>
       <c r="F13">
-        <v>0.23</v>
-      </c>
-      <c r="G13" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="1">
         <v>27.29</v>
       </c>
       <c r="H13">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J13" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="1">
-        <v>189.71</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="K13" s="39">
+        <v>228.97</v>
+      </c>
+      <c r="L13" s="39">
         <v>196.93</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="39">
         <v>189.36</v>
       </c>
-      <c r="N13" s="1">
-        <v>228.97</v>
+      <c r="N13" s="39">
+        <v>181.71</v>
+      </c>
+      <c r="P13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>30.12</v>
+      </c>
+      <c r="R13">
+        <v>29.48</v>
+      </c>
+      <c r="S13">
+        <v>27.44</v>
+      </c>
+      <c r="T13">
+        <v>27.33</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2">
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
         <v>51.38</v>
       </c>
-      <c r="B14">
-        <v>0.09</v>
-      </c>
-      <c r="C14" s="2">
-        <v>48.24</v>
+      <c r="B14" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>27.24</v>
       </c>
       <c r="D14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E14" s="2">
-        <v>58.69</v>
+      <c r="E14" s="1">
+        <v>28.69</v>
       </c>
       <c r="F14">
-        <v>0.22</v>
-      </c>
-      <c r="G14" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G14" s="1">
         <v>45.32</v>
       </c>
       <c r="H14">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J14" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="40">
         <v>0.36</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="41">
         <v>0.3</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="39">
         <v>0.42</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="39">
         <v>0.34</v>
       </c>
+      <c r="P14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0.124</v>
+      </c>
+      <c r="R14" s="37">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="S14" s="37">
+        <v>9.4E-2</v>
+      </c>
+      <c r="T14">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2">
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
         <v>27.27</v>
       </c>
-      <c r="B15">
-        <v>0.09</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C15" s="1">
         <v>28.67</v>
       </c>
       <c r="D15">
         <v>0.1</v>
       </c>
-      <c r="E15" s="2">
-        <v>36.950000000000003</v>
+      <c r="E15" s="1">
+        <v>30.95</v>
       </c>
       <c r="F15">
-        <v>0.21</v>
-      </c>
-      <c r="G15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="1">
         <v>27.28</v>
       </c>
       <c r="H15">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="2">
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
         <v>30.96</v>
       </c>
-      <c r="B16">
-        <v>0.09</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C16" s="1">
         <v>31.1</v>
       </c>
       <c r="D16">
         <v>0.08</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>25.47</v>
       </c>
       <c r="F16">
-        <v>0.22</v>
-      </c>
-      <c r="G16" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G16" s="1">
         <v>27.17</v>
       </c>
       <c r="H16">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>30.75</v>
+      </c>
+      <c r="B17" s="2">
         <v>0.12</v>
       </c>
-      <c r="J16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="2">
-        <v>25.12</v>
-      </c>
-      <c r="B17">
-        <v>0.09</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>30.09</v>
       </c>
       <c r="D17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>24.67</v>
       </c>
       <c r="F17">
-        <v>0.25</v>
-      </c>
-      <c r="G17" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G17" s="1">
         <v>29.33</v>
       </c>
       <c r="H17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>30.36</v>
+      </c>
+      <c r="B18" s="2">
         <v>0.12</v>
       </c>
-      <c r="J17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>29.55</v>
-      </c>
-      <c r="L17">
-        <v>30.18</v>
-      </c>
-      <c r="M17">
-        <v>29.04</v>
-      </c>
-      <c r="N17">
-        <v>27.53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2">
-        <v>23.84</v>
-      </c>
-      <c r="B18">
-        <v>0.09</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>28.72</v>
       </c>
       <c r="D18">
         <v>0.08</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>24.2</v>
       </c>
       <c r="F18">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G18" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G18" s="1">
         <v>26.42</v>
       </c>
       <c r="H18">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>29.97</v>
+      </c>
+      <c r="B19" s="2">
         <v>0.12</v>
       </c>
-      <c r="J18" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="L18">
-        <v>7.9600000000000004E-2</v>
-      </c>
-      <c r="M18">
-        <v>0.23630000000000001</v>
-      </c>
-      <c r="N18">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2">
-        <v>28.23</v>
-      </c>
-      <c r="B19">
-        <v>0.09</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>28.67</v>
       </c>
       <c r="D19">
         <v>0.08</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>34.729999999999997</v>
       </c>
       <c r="F19">
-        <v>0.24</v>
-      </c>
-      <c r="G19" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G19" s="1">
         <v>26.33</v>
       </c>
       <c r="H19">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2">
-        <v>26.04</v>
-      </c>
-      <c r="B20">
-        <v>0.09</v>
-      </c>
-      <c r="C20" s="2">
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>27.04</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C20" s="1">
         <v>27.42</v>
       </c>
       <c r="D20">
         <v>0.08</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>33.01</v>
       </c>
       <c r="F20">
-        <v>0.22</v>
-      </c>
-      <c r="G20" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G20" s="1">
         <v>25.56</v>
       </c>
       <c r="H20">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2">
-        <v>25.73</v>
-      </c>
-      <c r="B21">
-        <v>0.09</v>
-      </c>
-      <c r="C21" s="2">
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>27.93</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C21" s="1">
         <v>26.85</v>
       </c>
       <c r="D21">
         <v>0.08</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>24.99</v>
       </c>
       <c r="F21">
-        <v>0.23</v>
-      </c>
-      <c r="G21" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G21" s="1">
         <v>24.78</v>
       </c>
       <c r="H21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>25.49</v>
+      </c>
+      <c r="B22" s="2">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="2">
-        <v>25.49</v>
-      </c>
-      <c r="B22">
-        <v>0.09</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>26.23</v>
       </c>
       <c r="D22">
         <v>0.08</v>
       </c>
-      <c r="E22" s="2">
-        <v>37.53</v>
+      <c r="E22" s="1">
+        <v>25.53</v>
       </c>
       <c r="F22">
-        <v>0.24</v>
-      </c>
-      <c r="G22" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G22" s="1">
         <v>25.99</v>
       </c>
       <c r="H22">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>34.4</v>
       </c>
-      <c r="B23">
-        <v>0.09</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C23" s="1">
         <v>25.99</v>
       </c>
       <c r="D23">
         <v>0.08</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>26.16</v>
       </c>
       <c r="F23">
-        <v>0.24</v>
-      </c>
-      <c r="G23" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="G23" s="1">
         <v>24.27</v>
       </c>
       <c r="H23">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="2">
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
         <v>26.05</v>
       </c>
-      <c r="B24">
-        <v>0.09</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C24" s="1">
         <v>26.89</v>
       </c>
       <c r="D24">
         <v>0.08</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>24.59</v>
       </c>
       <c r="F24">
-        <v>0.24</v>
-      </c>
-      <c r="G24" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G24" s="1">
         <v>24.24</v>
       </c>
       <c r="H24">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="2">
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>24.09</v>
       </c>
-      <c r="B25">
-        <v>0.09</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C25" s="1">
         <v>25.75</v>
       </c>
       <c r="D25">
         <v>0.08</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>24.09</v>
       </c>
       <c r="F25">
-        <v>0.25</v>
-      </c>
-      <c r="G25" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G25" s="1">
         <v>25.9</v>
       </c>
       <c r="H25">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
         <v>24.03</v>
       </c>
-      <c r="B26">
-        <v>0.09</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C26" s="1">
         <v>25.96</v>
       </c>
       <c r="D26">
         <v>0.08</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>24.25</v>
       </c>
       <c r="F26">
-        <v>0.22</v>
-      </c>
-      <c r="G26" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G26" s="1">
         <v>25.96</v>
       </c>
       <c r="H26">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>23.73</v>
+      </c>
+      <c r="B27" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="2">
-        <v>23.73</v>
-      </c>
-      <c r="B27">
-        <v>0.09</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>25.73</v>
       </c>
       <c r="D27">
         <v>0.08</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>24.17</v>
       </c>
       <c r="F27">
-        <v>0.25</v>
-      </c>
-      <c r="G27" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G27" s="1">
         <v>24.89</v>
       </c>
       <c r="H27">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>23.79</v>
+      </c>
+      <c r="B28" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="2">
-        <v>23.79</v>
-      </c>
-      <c r="B28">
-        <v>0.09</v>
-      </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>25.83</v>
       </c>
       <c r="D28">
         <v>0.08</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>24.49</v>
       </c>
       <c r="F28">
-        <v>0.23</v>
-      </c>
-      <c r="G28" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G28" s="1">
         <v>25.48</v>
       </c>
       <c r="H28">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>23.98</v>
+      </c>
+      <c r="B29" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="2">
-        <v>23.98</v>
-      </c>
-      <c r="B29">
-        <v>0.09</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>25.64</v>
       </c>
       <c r="D29">
         <v>0.08</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>24.24</v>
       </c>
       <c r="F29">
-        <v>0.24</v>
-      </c>
-      <c r="G29" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="1">
         <v>24.14</v>
       </c>
       <c r="H29">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>23.88</v>
+      </c>
+      <c r="B30" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="2">
-        <v>23.88</v>
-      </c>
-      <c r="B30">
-        <v>0.09</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>25.99</v>
       </c>
       <c r="D30">
         <v>0.08</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>23.8</v>
       </c>
       <c r="F30">
-        <v>0.24</v>
-      </c>
-      <c r="G30" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G30" s="1">
         <v>24</v>
       </c>
       <c r="H30">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>24.24</v>
+      </c>
+      <c r="B31" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="2">
-        <v>24.24</v>
-      </c>
-      <c r="B31">
-        <v>0.09</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>25.44</v>
       </c>
       <c r="D31">
         <v>0.08</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>24.14</v>
       </c>
       <c r="F31">
-        <v>0.25</v>
-      </c>
-      <c r="G31" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="G31" s="1">
         <v>24.32</v>
       </c>
       <c r="H31">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>23.67</v>
+      </c>
+      <c r="B32" s="2">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="2">
-        <v>23.67</v>
-      </c>
-      <c r="B32">
-        <v>0.09</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>25.47</v>
       </c>
       <c r="D32">
         <v>0.09</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>24.34</v>
       </c>
       <c r="F32">
-        <v>0.24</v>
-      </c>
-      <c r="G32" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="G32" s="1">
         <v>23.95</v>
       </c>
       <c r="H32">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>23.78</v>
       </c>
-      <c r="B33">
-        <v>0.09</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B33" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C33" s="1">
         <v>25.55</v>
       </c>
       <c r="D33">
         <v>0.08</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>24.32</v>
       </c>
       <c r="F33">
-        <v>0.25</v>
-      </c>
-      <c r="G33" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G33" s="1">
         <v>23.88</v>
       </c>
       <c r="H33">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>23.81</v>
       </c>
-      <c r="B34">
-        <v>0.09</v>
-      </c>
-      <c r="C34" s="2">
+      <c r="B34" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C34" s="1">
         <v>25.89</v>
       </c>
       <c r="D34">
         <v>0.08</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>24.1</v>
       </c>
       <c r="F34">
-        <v>0.35</v>
-      </c>
-      <c r="G34" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="G34" s="1">
         <v>23.96</v>
       </c>
       <c r="H34">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="13.8" thickBot="1">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:20" ht="13.5" thickBot="1">
+      <c r="A36" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37" t="s">
+      <c r="D37" s="54"/>
+      <c r="E37" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37" t="s">
+      <c r="F37" s="54"/>
+      <c r="G37" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="37"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="35" t="s">
+      <c r="H37" s="54"/>
+      <c r="J37" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35" t="s">
+      <c r="L37" s="52"/>
+      <c r="M37" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35" t="s">
+      <c r="N37" s="52"/>
+      <c r="O37" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35" t="s">
+      <c r="P37" s="52"/>
+      <c r="Q37" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="R37" s="36"/>
+      <c r="R37" s="53"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
@@ -13755,41 +13910,41 @@
       <c r="H38" t="s">
         <v>1</v>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="8" t="s">
+      <c r="J38" s="58"/>
+      <c r="K38" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N38" s="9" t="s">
+      <c r="N38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="O38" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P38" s="9" t="s">
+      <c r="P38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R38" s="14" t="s">
+      <c r="R38" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39">
-        <v>112.03</v>
+        <v>129.26</v>
       </c>
       <c r="B39">
         <v>0.56999999999999995</v>
       </c>
       <c r="C39">
-        <v>106.85</v>
+        <v>115.85</v>
       </c>
       <c r="D39">
         <v>0.32</v>
@@ -13801,36 +13956,36 @@
         <v>0.31</v>
       </c>
       <c r="G39">
-        <v>129.26</v>
+        <v>102.03</v>
       </c>
       <c r="H39">
         <v>0.31</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="26">
-        <v>112.03</v>
-      </c>
-      <c r="L39" s="20">
+      <c r="K39" s="47">
+        <v>129.03</v>
+      </c>
+      <c r="L39" s="15">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M39" s="26">
-        <v>106.85</v>
-      </c>
-      <c r="N39" s="20">
+      <c r="M39" s="47">
+        <v>115.85</v>
+      </c>
+      <c r="N39" s="15">
         <v>0.32</v>
       </c>
-      <c r="O39" s="26">
+      <c r="O39" s="47">
         <v>109.38</v>
       </c>
-      <c r="P39" s="20">
+      <c r="P39" s="15">
         <v>0.31</v>
       </c>
-      <c r="Q39" s="26">
-        <v>129.26</v>
-      </c>
-      <c r="R39" s="23">
+      <c r="Q39" s="47">
+        <v>102.03</v>
+      </c>
+      <c r="R39" s="18">
         <v>0.31</v>
       </c>
     </row>
@@ -13859,38 +14014,38 @@
       <c r="H40">
         <v>0.1</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="27">
+      <c r="K40" s="48">
         <f t="shared" ref="K40:R40" si="2">AVERAGE(A40:A69)</f>
         <v>30.038666666666675</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="28">
         <f t="shared" si="2"/>
         <v>0.17166666666666672</v>
       </c>
-      <c r="M40" s="27">
+      <c r="M40" s="48">
         <f t="shared" si="2"/>
-        <v>25.702666666666669</v>
-      </c>
-      <c r="N40" s="21">
+        <v>27.036333333333332</v>
+      </c>
+      <c r="N40" s="28">
         <f t="shared" si="2"/>
         <v>0.10833333333333338</v>
       </c>
-      <c r="O40" s="27">
+      <c r="O40" s="48">
         <f t="shared" si="2"/>
-        <v>27.564</v>
-      </c>
-      <c r="P40" s="21">
+        <v>25.797333333333331</v>
+      </c>
+      <c r="P40" s="28">
         <f t="shared" si="2"/>
         <v>8.3333333333333343E-2</v>
       </c>
-      <c r="Q40" s="27">
+      <c r="Q40" s="48">
         <f t="shared" si="2"/>
-        <v>25.268999999999995</v>
-      </c>
-      <c r="R40" s="24">
+        <v>24.73566666666666</v>
+      </c>
+      <c r="R40" s="36">
         <f t="shared" si="2"/>
         <v>7.7000000000000041E-2</v>
       </c>
@@ -13920,32 +14075,32 @@
       <c r="H41">
         <v>0.08</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="26">
-        <v>5.68</v>
-      </c>
-      <c r="L41" s="20">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="M41" s="26">
-        <v>5.14</v>
-      </c>
-      <c r="N41" s="20">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="O41" s="26">
-        <v>5.62</v>
-      </c>
-      <c r="P41" s="20">
-        <v>1.44E-2</v>
-      </c>
-      <c r="Q41" s="26">
-        <v>6.55</v>
-      </c>
-      <c r="R41" s="23">
-        <v>1.4800000000000001E-2</v>
+      <c r="K41" s="47">
+        <v>2.59</v>
+      </c>
+      <c r="L41" s="15">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="M41" s="47">
+        <v>1.01</v>
+      </c>
+      <c r="N41" s="15">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="O41" s="47">
+        <v>0.45</v>
+      </c>
+      <c r="P41" s="15">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="Q41" s="47">
+        <v>0.17</v>
+      </c>
+      <c r="R41" s="18">
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -13956,7 +14111,7 @@
         <v>0.12</v>
       </c>
       <c r="C42">
-        <v>24.83</v>
+        <v>29.83</v>
       </c>
       <c r="D42">
         <v>0.11</v>
@@ -13973,15 +14128,15 @@
       <c r="H42">
         <v>0.08</v>
       </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="23"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="18"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43">
@@ -13991,7 +14146,7 @@
         <v>0.15</v>
       </c>
       <c r="C43">
-        <v>24.63</v>
+        <v>29.8</v>
       </c>
       <c r="D43">
         <v>0.12</v>
@@ -14008,43 +14163,43 @@
       <c r="H43">
         <v>0.08</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="27">
-        <f t="shared" ref="K43:R43" si="3">_xlfn.STDEV.P(A39:A69)</f>
-        <v>16.13679537046632</v>
-      </c>
-      <c r="L43" s="21">
+      <c r="K43" s="48">
+        <f t="shared" ref="K43:R43" si="3">_xlfn.STDEV.P(A40:A69)</f>
+        <v>7.2262478660935701</v>
+      </c>
+      <c r="L43" s="16">
         <f t="shared" si="3"/>
-        <v>7.2860392783929612E-2</v>
-      </c>
-      <c r="M43" s="27">
+        <v>1.9163043135739355E-2</v>
+      </c>
+      <c r="M43" s="48">
         <f t="shared" si="3"/>
-        <v>14.589167984384385</v>
-      </c>
-      <c r="N43" s="21">
+        <v>2.8246149983473954</v>
+      </c>
+      <c r="N43" s="16">
         <f t="shared" si="3"/>
-        <v>4.047069570983787E-2</v>
-      </c>
-      <c r="O43" s="27">
+        <v>1.5723301886760823E-2</v>
+      </c>
+      <c r="O43" s="48">
         <f t="shared" si="3"/>
-        <v>15.958539303173916</v>
-      </c>
-      <c r="P43" s="21">
+        <v>1.2692253105295719</v>
+      </c>
+      <c r="P43" s="16">
         <f t="shared" si="3"/>
-        <v>4.0951228574344037E-2</v>
-      </c>
-      <c r="Q43" s="27">
+        <v>8.6922698736035305E-3</v>
+      </c>
+      <c r="Q43" s="48">
         <f t="shared" si="3"/>
-        <v>18.604407134555622</v>
-      </c>
-      <c r="R43" s="24">
+        <v>0.46160360580143733</v>
+      </c>
+      <c r="R43" s="19">
         <f t="shared" si="3"/>
-        <v>4.195533029132658E-2</v>
+        <v>8.2259751195020436E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="13.8" thickBot="1">
+    <row r="44" spans="1:20" ht="13.5" thickBot="1">
       <c r="A44">
         <v>38.979999999999997</v>
       </c>
@@ -14052,7 +14207,7 @@
         <v>0.15</v>
       </c>
       <c r="C44">
-        <v>24.66</v>
+        <v>28.8</v>
       </c>
       <c r="D44">
         <v>0.11</v>
@@ -14069,40 +14224,40 @@
       <c r="H44">
         <v>0.08</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="29">
-        <f t="shared" ref="K44:R44" si="4">_xlfn.CONFIDENCE.NORM(0.05,K43,31)</f>
-        <v>5.680473470312382</v>
-      </c>
-      <c r="L44" s="30">
+      <c r="K44" s="49">
+        <f t="shared" ref="K44:R44" si="4">_xlfn.CONFIDENCE.NORM(0.05,K43,30)</f>
+        <v>2.5858320726126429</v>
+      </c>
+      <c r="L44" s="17">
         <f t="shared" si="4"/>
-        <v>2.5648309887051107E-2</v>
-      </c>
-      <c r="M44" s="29">
+        <v>6.8572809108528223E-3</v>
+      </c>
+      <c r="M44" s="49">
         <f t="shared" si="4"/>
-        <v>5.1356777964044662</v>
-      </c>
-      <c r="N44" s="22">
+        <v>1.0107569226597612</v>
+      </c>
+      <c r="N44" s="17">
         <f t="shared" si="4"/>
-        <v>1.4246491203920851E-2</v>
-      </c>
-      <c r="O44" s="28">
+        <v>5.6264079311378768E-3</v>
+      </c>
+      <c r="O44" s="49">
         <f t="shared" si="4"/>
-        <v>5.6177237831576479</v>
-      </c>
-      <c r="P44" s="22">
+        <v>0.45417809853141994</v>
+      </c>
+      <c r="P44" s="17">
         <f t="shared" si="4"/>
-        <v>1.4415648346077857E-2</v>
-      </c>
-      <c r="Q44" s="28">
+        <v>3.1104316706921011E-3</v>
+      </c>
+      <c r="Q44" s="49">
         <f t="shared" si="4"/>
-        <v>6.5491219745001716</v>
-      </c>
-      <c r="R44" s="25">
+        <v>0.16517969364373092</v>
+      </c>
+      <c r="R44" s="20">
         <f t="shared" si="4"/>
-        <v>1.4769112155580797E-2</v>
+        <v>2.9435733020352186E-3</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -14113,7 +14268,7 @@
         <v>0.13</v>
       </c>
       <c r="C45">
-        <v>24.39</v>
+        <v>28.79</v>
       </c>
       <c r="D45">
         <v>0.1</v>
@@ -14130,9 +14285,9 @@
       <c r="H45">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="7"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="45"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46">
@@ -14142,7 +14297,7 @@
         <v>0.19</v>
       </c>
       <c r="C46">
-        <v>23.97</v>
+        <v>28.32</v>
       </c>
       <c r="D46">
         <v>0.08</v>
@@ -14159,7 +14314,9 @@
       <c r="H46">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L46" s="7"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
     </row>
     <row r="47" spans="1:20">
       <c r="A47">
@@ -14169,7 +14326,7 @@
         <v>0.17</v>
       </c>
       <c r="C47">
-        <v>24.35</v>
+        <v>28.35</v>
       </c>
       <c r="D47">
         <v>0.08</v>
@@ -14189,31 +14346,31 @@
       <c r="J47" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <v>1</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="3">
         <v>0.75</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="3">
         <v>0.5</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="3">
         <v>0.25</v>
       </c>
       <c r="P47" t="s">
         <v>12</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="3">
         <v>1</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="3">
         <v>0.75</v>
       </c>
-      <c r="S47" s="4">
+      <c r="S47" s="3">
         <v>0.5</v>
       </c>
-      <c r="T47" s="4">
+      <c r="T47" s="3">
         <v>0.25</v>
       </c>
     </row>
@@ -14225,7 +14382,7 @@
         <v>0.17</v>
       </c>
       <c r="C48">
-        <v>24.47</v>
+        <v>28.47</v>
       </c>
       <c r="D48">
         <v>0.08</v>
@@ -14246,16 +14403,16 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>112.03</v>
+        <v>129.26</v>
       </c>
       <c r="L48">
-        <v>106.85</v>
+        <v>115.85</v>
       </c>
       <c r="M48">
         <v>109.38</v>
       </c>
       <c r="N48">
-        <v>129.26</v>
+        <v>102.03</v>
       </c>
       <c r="P48" t="s">
         <v>0</v>
@@ -14264,13 +14421,13 @@
         <v>30.04</v>
       </c>
       <c r="R48">
-        <v>25.7</v>
+        <v>27.04</v>
       </c>
       <c r="S48">
-        <v>27.57</v>
+        <v>25.87</v>
       </c>
       <c r="T48">
-        <v>25.27</v>
+        <v>24.74</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -14287,13 +14444,13 @@
         <v>0.08</v>
       </c>
       <c r="E49">
-        <v>59.77</v>
+        <v>26.77</v>
       </c>
       <c r="F49">
         <v>0.08</v>
       </c>
       <c r="G49">
-        <v>41.07</v>
+        <v>25.07</v>
       </c>
       <c r="H49">
         <v>7.0000000000000007E-2</v>
@@ -14317,12 +14474,12 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>0.17169999999999999</v>
-      </c>
-      <c r="R49">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="R49" s="37">
         <v>0.10829999999999999</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="37">
         <v>8.3299999999999999E-2</v>
       </c>
       <c r="T49">
@@ -14343,7 +14500,7 @@
         <v>0.09</v>
       </c>
       <c r="E50">
-        <v>42.92</v>
+        <v>27.92</v>
       </c>
       <c r="F50">
         <v>0.09</v>
@@ -14447,7 +14604,7 @@
         <v>0.13</v>
       </c>
       <c r="E54">
-        <v>30.34</v>
+        <v>25.34</v>
       </c>
       <c r="F54">
         <v>0.08</v>
@@ -14493,7 +14650,7 @@
         <v>0.18</v>
       </c>
       <c r="C56">
-        <v>24.61</v>
+        <v>27.97</v>
       </c>
       <c r="D56">
         <v>0.12</v>
@@ -14545,7 +14702,7 @@
         <v>0.18</v>
       </c>
       <c r="C58">
-        <v>25.58</v>
+        <v>26.58</v>
       </c>
       <c r="D58">
         <v>0.12</v>
@@ -14571,7 +14728,7 @@
         <v>0.18</v>
       </c>
       <c r="C59">
-        <v>25.48</v>
+        <v>26.47</v>
       </c>
       <c r="D59">
         <v>0.11</v>
@@ -14597,7 +14754,7 @@
         <v>0.18</v>
       </c>
       <c r="C60">
-        <v>24.96</v>
+        <v>26.96</v>
       </c>
       <c r="D60">
         <v>0.12</v>
@@ -14623,7 +14780,7 @@
         <v>0.18</v>
       </c>
       <c r="C61">
-        <v>24.08</v>
+        <v>25.68</v>
       </c>
       <c r="D61">
         <v>0.12</v>
@@ -14849,76 +15006,78 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="13.8" thickBot="1"/>
+    <row r="70" spans="1:20" ht="13.5" thickBot="1"/>
     <row r="71" spans="1:20">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="35" t="s">
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="J71" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K71" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35" t="s">
+      <c r="L71" s="52"/>
+      <c r="M71" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35" t="s">
+      <c r="N71" s="52"/>
+      <c r="O71" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35" t="s">
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="R71" s="36"/>
+      <c r="R71" s="53"/>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37" t="s">
+      <c r="B72" s="54"/>
+      <c r="C72" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37" t="s">
+      <c r="D72" s="54"/>
+      <c r="E72" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37" t="s">
+      <c r="F72" s="54"/>
+      <c r="G72" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="37"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="8" t="s">
+      <c r="H72" s="54"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L72" s="9" t="s">
+      <c r="L72" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M72" s="8" t="s">
+      <c r="M72" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N72" s="9" t="s">
+      <c r="N72" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O72" s="8" t="s">
+      <c r="O72" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P72" s="9" t="s">
+      <c r="P72" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q72" s="8" t="s">
+      <c r="Q72" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R72" s="14" t="s">
+      <c r="R72" s="50" t="s">
         <v>1</v>
       </c>
     </row>
@@ -14947,37 +15106,37 @@
       <c r="H73" t="s">
         <v>1</v>
       </c>
-      <c r="J73" s="13" t="s">
+      <c r="J73" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="5">
-        <v>100.2</v>
-      </c>
-      <c r="L73" s="6">
+      <c r="K73" s="4">
+        <v>120.2</v>
+      </c>
+      <c r="L73" s="5">
         <v>0.36</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="4">
         <v>114.54</v>
       </c>
-      <c r="N73" s="6">
+      <c r="N73" s="5">
         <v>0.33</v>
       </c>
-      <c r="O73" s="5">
+      <c r="O73" s="4">
         <v>101.41</v>
       </c>
-      <c r="P73" s="6">
+      <c r="P73" s="5">
         <v>0.34</v>
       </c>
-      <c r="Q73" s="5">
-        <v>101.21</v>
-      </c>
-      <c r="R73" s="6">
+      <c r="Q73" s="4">
+        <v>95.21</v>
+      </c>
+      <c r="R73" s="18">
         <v>0.3</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74">
-        <v>100.2</v>
+        <v>120.2</v>
       </c>
       <c r="B74">
         <v>0.36</v>
@@ -14995,45 +15154,45 @@
         <v>0.34</v>
       </c>
       <c r="G74">
-        <v>101.21</v>
+        <v>95.21</v>
       </c>
       <c r="H74">
         <v>0.3</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K74" s="32">
+      <c r="K74" s="21">
         <f t="shared" ref="K74:R74" si="5">AVERAGE(A75:A104)</f>
         <v>29.192333333333334</v>
       </c>
-      <c r="L74" s="21">
+      <c r="L74" s="28">
         <f t="shared" si="5"/>
-        <v>0.10033333333333332</v>
-      </c>
-      <c r="M74" s="32">
+        <v>0.10566666666666664</v>
+      </c>
+      <c r="M74" s="21">
         <f t="shared" si="5"/>
         <v>28.396999999999998</v>
       </c>
-      <c r="N74" s="21">
+      <c r="N74" s="28">
         <f t="shared" si="5"/>
-        <v>0.12533333333333332</v>
-      </c>
-      <c r="O74" s="32">
+        <v>0.10766666666666667</v>
+      </c>
+      <c r="O74" s="21">
         <f t="shared" si="5"/>
-        <v>25.502666666666659</v>
-      </c>
-      <c r="P74" s="21">
+        <v>26.816333333333322</v>
+      </c>
+      <c r="P74" s="28">
+        <f t="shared" si="5"/>
+        <v>8.7666666666666698E-2</v>
+      </c>
+      <c r="Q74" s="21">
+        <f t="shared" si="5"/>
+        <v>26.132333333333332</v>
+      </c>
+      <c r="R74" s="51">
         <f t="shared" si="5"/>
         <v>8.1666666666666707E-2</v>
-      </c>
-      <c r="Q74" s="32">
-        <f t="shared" si="5"/>
-        <v>27.065666666666662</v>
-      </c>
-      <c r="R74" s="23">
-        <f t="shared" si="5"/>
-        <v>8.3000000000000018E-2</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -15041,16 +15200,16 @@
         <v>40.11</v>
       </c>
       <c r="B75">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C75">
         <v>34.31</v>
       </c>
       <c r="D75">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E75">
-        <v>24.98</v>
+        <v>35.11</v>
       </c>
       <c r="F75">
         <v>0.11</v>
@@ -15061,32 +15220,32 @@
       <c r="H75">
         <v>0.1</v>
       </c>
-      <c r="J75" s="13" t="s">
+      <c r="J75" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K75" s="33">
-        <v>4.7</v>
-      </c>
-      <c r="L75" s="20">
-        <v>1.67E-2</v>
-      </c>
-      <c r="M75" s="33">
-        <v>5.6</v>
-      </c>
-      <c r="N75" s="20">
-        <v>1.37E-2</v>
-      </c>
-      <c r="O75" s="33">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="P75" s="20">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="Q75" s="33">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="R75" s="23">
-        <v>3.8699999999999998E-2</v>
+      <c r="K75" s="22">
+        <v>1.66</v>
+      </c>
+      <c r="L75" s="28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M75" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="N75" s="28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O75" s="22">
+        <v>1.3</v>
+      </c>
+      <c r="P75" s="28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q75" s="22">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R75" s="36">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -15094,7 +15253,7 @@
         <v>33.049999999999997</v>
       </c>
       <c r="B76">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C76">
         <v>33.65</v>
@@ -15103,7 +15262,7 @@
         <v>0.12</v>
       </c>
       <c r="E76">
-        <v>24.56</v>
+        <v>33.049999999999997</v>
       </c>
       <c r="F76">
         <v>0.09</v>
@@ -15112,33 +15271,33 @@
         <v>25.92</v>
       </c>
       <c r="H76">
-        <v>0.08</v>
-      </c>
-      <c r="J76" s="13"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="23"/>
+        <v>0.09</v>
+      </c>
+      <c r="J76" s="32"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="18"/>
     </row>
     <row r="77" spans="1:20">
       <c r="A77">
         <v>32.659999999999997</v>
       </c>
       <c r="B77">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C77">
         <v>33.450000000000003</v>
       </c>
       <c r="D77">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E77">
-        <v>24.78</v>
+        <v>32.659999999999997</v>
       </c>
       <c r="F77">
         <v>0.09</v>
@@ -15147,59 +15306,59 @@
         <v>26.26</v>
       </c>
       <c r="H77">
-        <v>0.08</v>
-      </c>
-      <c r="J77" s="13" t="s">
+        <v>0.09</v>
+      </c>
+      <c r="J77" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K77" s="32">
-        <f t="shared" ref="K77:Q77" si="6">_xlfn.STDEV.P(A74:A104)</f>
-        <v>13.35056147026333</v>
-      </c>
-      <c r="L77" s="21">
+      <c r="K77" s="21">
+        <f t="shared" ref="K77:Q77" si="6">_xlfn.STDEV.P(A75:A104)</f>
+        <v>4.6401204606010795</v>
+      </c>
+      <c r="L77" s="28">
         <f t="shared" si="6"/>
-        <v>4.7433616464103719E-2</v>
-      </c>
-      <c r="M77" s="32">
+        <v>1.4302291968616793E-2</v>
+      </c>
+      <c r="M77" s="21">
         <f t="shared" si="6"/>
-        <v>15.921414828968169</v>
-      </c>
-      <c r="N77" s="21">
+        <v>4.7504148239916848</v>
+      </c>
+      <c r="N77" s="28">
         <f t="shared" si="6"/>
-        <v>3.8889367884336994E-2</v>
-      </c>
-      <c r="O77" s="32">
+        <v>2.5649344804280851E-2</v>
+      </c>
+      <c r="O77" s="21">
         <f t="shared" si="6"/>
-        <v>13.656110233963574</v>
-      </c>
-      <c r="P77" s="21">
+        <v>3.6342734104938916</v>
+      </c>
+      <c r="P77" s="28">
         <f t="shared" si="6"/>
-        <v>4.6001402503163501E-2</v>
-      </c>
-      <c r="Q77" s="32">
+        <v>1.1742609969205245E-2</v>
+      </c>
+      <c r="Q77" s="21">
         <f t="shared" si="6"/>
-        <v>13.5619051301661</v>
-      </c>
-      <c r="R77" s="23">
-        <f>_xlfn.STDEV.P(H74,H104)</f>
-        <v>0.11</v>
+        <v>1.553921240675415</v>
+      </c>
+      <c r="R77" s="18">
+        <f>_xlfn.STDEV.P(H75,H104)</f>
+        <v>1.0000000000000056E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="13.8" thickBot="1">
+    <row r="78" spans="1:20" ht="13.5" thickBot="1">
       <c r="A78">
         <v>32.29</v>
       </c>
       <c r="B78">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C78">
         <v>32.9</v>
       </c>
       <c r="D78">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E78">
-        <v>30.35</v>
+        <v>31.29</v>
       </c>
       <c r="F78">
         <v>0.08</v>
@@ -15210,40 +15369,40 @@
       <c r="H78">
         <v>0.08</v>
       </c>
-      <c r="J78" s="16" t="s">
+      <c r="J78" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K78" s="34">
-        <f t="shared" ref="K78:R78" si="7">_xlfn.CONFIDENCE.NORM(0.05,K77,31)</f>
-        <v>4.6996636261747398</v>
-      </c>
-      <c r="L78" s="22">
-        <f t="shared" si="7"/>
-        <v>1.6697578034512026E-2</v>
-      </c>
-      <c r="M78" s="34">
-        <f t="shared" si="7"/>
-        <v>5.6046552285912936</v>
-      </c>
-      <c r="N78" s="22">
-        <f t="shared" si="7"/>
-        <v>1.3689832303909967E-2</v>
-      </c>
-      <c r="O78" s="34">
-        <f t="shared" si="7"/>
-        <v>4.8072228785689681</v>
-      </c>
-      <c r="P78" s="22">
-        <f t="shared" si="7"/>
-        <v>1.6193410185682398E-2</v>
-      </c>
-      <c r="Q78" s="34">
-        <f t="shared" si="7"/>
-        <v>4.7740608051458286</v>
-      </c>
-      <c r="R78" s="25">
-        <f t="shared" si="7"/>
-        <v>3.8722191574540925E-2</v>
+      <c r="K78" s="23">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,K77,30)</f>
+        <v>1.6604152708499216</v>
+      </c>
+      <c r="L78" s="43">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,L77,30)</f>
+        <v>5.117915406396418E-3</v>
+      </c>
+      <c r="M78" s="23">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,M77,30)</f>
+        <v>1.6998828766626182</v>
+      </c>
+      <c r="N78" s="43">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,N77,30)</f>
+        <v>9.1783315028002768E-3</v>
+      </c>
+      <c r="O78" s="23">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,O77,30)</f>
+        <v>1.30048414054453</v>
+      </c>
+      <c r="P78" s="43">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P77,30)</f>
+        <v>4.2019617977713452E-3</v>
+      </c>
+      <c r="Q78" s="23">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,Q77,30)</f>
+        <v>0.55605335672283018</v>
+      </c>
+      <c r="R78" s="44">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,R77,30)</f>
+        <v>3.5783882874343333E-3</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -15257,7 +15416,7 @@
         <v>28.85</v>
       </c>
       <c r="D79">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E79">
         <v>24.65</v>
@@ -15283,10 +15442,10 @@
         <v>28.77</v>
       </c>
       <c r="D80">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E80">
-        <v>23.92</v>
+        <v>24.89</v>
       </c>
       <c r="F80">
         <v>0.08</v>
@@ -15300,31 +15459,31 @@
       <c r="J80" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="3">
         <v>1</v>
       </c>
-      <c r="L80" s="4">
+      <c r="L80" s="3">
         <v>0.75</v>
       </c>
-      <c r="M80" s="4">
+      <c r="M80" s="3">
         <v>0.5</v>
       </c>
-      <c r="N80" s="4">
+      <c r="N80" s="3">
         <v>0.25</v>
       </c>
       <c r="P80" t="s">
         <v>16</v>
       </c>
-      <c r="Q80" s="4">
+      <c r="Q80" s="3">
         <v>1</v>
       </c>
-      <c r="R80" s="4">
+      <c r="R80" s="3">
         <v>0.75</v>
       </c>
-      <c r="S80" s="4">
+      <c r="S80" s="3">
         <v>0.5</v>
       </c>
-      <c r="T80" s="4">
+      <c r="T80" s="3">
         <v>0.25</v>
       </c>
     </row>
@@ -15333,19 +15492,19 @@
         <v>28.09</v>
       </c>
       <c r="B81">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C81">
         <v>28.58</v>
       </c>
       <c r="D81">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E81">
         <v>23.82</v>
       </c>
       <c r="F81">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G81">
         <v>24.76</v>
@@ -15357,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>100.2</v>
+        <v>120.2</v>
       </c>
       <c r="L81">
         <v>114.54</v>
@@ -15366,7 +15525,7 @@
         <v>101.41</v>
       </c>
       <c r="N81">
-        <v>101.21</v>
+        <v>95.21</v>
       </c>
       <c r="P81" t="s">
         <v>0</v>
@@ -15378,10 +15537,10 @@
         <v>28.4</v>
       </c>
       <c r="S81">
-        <v>25.5</v>
+        <v>26.82</v>
       </c>
       <c r="T81">
-        <v>27.07</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -15389,7 +15548,7 @@
         <v>27.95</v>
       </c>
       <c r="B82">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C82">
         <v>28.79</v>
@@ -15401,7 +15560,7 @@
         <v>23.64</v>
       </c>
       <c r="F82">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G82">
         <v>25.28</v>
@@ -15428,16 +15587,16 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>0.1003</v>
+        <v>0.106</v>
       </c>
       <c r="R82">
-        <v>0.12529999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="S82">
-        <v>8.1699999999999995E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="T82">
-        <v>8.3000000000000004E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -15445,7 +15604,7 @@
         <v>27.98</v>
       </c>
       <c r="B83">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C83">
         <v>28.98</v>
@@ -15457,7 +15616,7 @@
         <v>24.2</v>
       </c>
       <c r="F83">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G83">
         <v>25.07</v>
@@ -15483,10 +15642,10 @@
         <v>36.94</v>
       </c>
       <c r="F84">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G84">
-        <v>40.18</v>
+        <v>25.18</v>
       </c>
       <c r="H84">
         <v>0.08</v>
@@ -15509,7 +15668,7 @@
         <v>26.16</v>
       </c>
       <c r="F85">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G85">
         <v>25.94</v>
@@ -15532,10 +15691,10 @@
         <v>0.12</v>
       </c>
       <c r="E86">
-        <v>25.5</v>
+        <v>28.5</v>
       </c>
       <c r="F86">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G86">
         <v>26.11</v>
@@ -15558,10 +15717,10 @@
         <v>0.12</v>
       </c>
       <c r="E87">
-        <v>25.28</v>
+        <v>29.28</v>
       </c>
       <c r="F87">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G87">
         <v>26.15</v>
@@ -15587,7 +15746,7 @@
         <v>30.51</v>
       </c>
       <c r="F88">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G88">
         <v>26.01</v>
@@ -15610,10 +15769,10 @@
         <v>0.12</v>
       </c>
       <c r="E89">
-        <v>25.13</v>
+        <v>29.13</v>
       </c>
       <c r="F89">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="G89">
         <v>26</v>
@@ -15642,7 +15801,7 @@
         <v>0.08</v>
       </c>
       <c r="G90">
-        <v>37.64</v>
+        <v>25.64</v>
       </c>
       <c r="H90">
         <v>0.08</v>
@@ -15685,7 +15844,7 @@
         <v>24.61</v>
       </c>
       <c r="D92">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E92">
         <v>25.32</v>
@@ -15711,7 +15870,7 @@
         <v>24.39</v>
       </c>
       <c r="D93">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E93">
         <v>24.92</v>
@@ -15720,7 +15879,7 @@
         <v>0.08</v>
       </c>
       <c r="G93">
-        <v>29.99</v>
+        <v>28.99</v>
       </c>
       <c r="H93">
         <v>7.0000000000000007E-2</v>
@@ -15737,7 +15896,7 @@
         <v>24.3</v>
       </c>
       <c r="D94">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E94">
         <v>24.77</v>
@@ -15763,7 +15922,7 @@
         <v>26.3</v>
       </c>
       <c r="D95">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E95">
         <v>24.79</v>
@@ -15789,7 +15948,7 @@
         <v>24.76</v>
       </c>
       <c r="D96">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E96">
         <v>24.93</v>
@@ -15815,7 +15974,7 @@
         <v>24.61</v>
       </c>
       <c r="D97">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="E97">
         <v>25.76</v>
@@ -15841,7 +16000,7 @@
         <v>25.08</v>
       </c>
       <c r="D98">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E98">
         <v>24.35</v>
@@ -15867,7 +16026,7 @@
         <v>25.04</v>
       </c>
       <c r="D99">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="E99">
         <v>24.18</v>
@@ -15893,7 +16052,7 @@
         <v>24.56</v>
       </c>
       <c r="D100">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="E100">
         <v>24.35</v>
@@ -15905,7 +16064,7 @@
         <v>24.99</v>
       </c>
       <c r="H100">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -15919,7 +16078,7 @@
         <v>25.07</v>
       </c>
       <c r="D101">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="E101">
         <v>24.68</v>
@@ -15945,7 +16104,7 @@
         <v>24.64</v>
       </c>
       <c r="D102">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E102">
         <v>24.67</v>
@@ -15957,7 +16116,7 @@
         <v>24.8</v>
       </c>
       <c r="H102">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -16012,76 +16171,78 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="13.8" thickBot="1"/>
+    <row r="105" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="106" spans="1:18">
-      <c r="A106" s="37" t="s">
+      <c r="A106" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="35" t="s">
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="J106" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="L106" s="35"/>
-      <c r="M106" s="35" t="s">
+      <c r="L106" s="52"/>
+      <c r="M106" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N106" s="35"/>
-      <c r="O106" s="35" t="s">
+      <c r="N106" s="52"/>
+      <c r="O106" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="P106" s="35"/>
-      <c r="Q106" s="35" t="s">
+      <c r="P106" s="52"/>
+      <c r="Q106" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="R106" s="36"/>
+      <c r="R106" s="53"/>
     </row>
     <row r="107" spans="1:18">
-      <c r="A107" s="37" t="s">
+      <c r="A107" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37" t="s">
+      <c r="B107" s="54"/>
+      <c r="C107" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37" t="s">
+      <c r="D107" s="54"/>
+      <c r="E107" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37" t="s">
+      <c r="F107" s="54"/>
+      <c r="G107" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H107" s="37"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="8" t="s">
+      <c r="H107" s="54"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L107" s="9" t="s">
+      <c r="L107" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M107" s="8" t="s">
+      <c r="M107" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N107" s="9" t="s">
+      <c r="N107" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O107" s="8" t="s">
+      <c r="O107" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="P107" s="9" t="s">
+      <c r="P107" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q107" s="8" t="s">
+      <c r="Q107" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="R107" s="14" t="s">
+      <c r="R107" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -16110,31 +16271,31 @@
       <c r="H108" t="s">
         <v>1</v>
       </c>
-      <c r="J108" s="13" t="s">
+      <c r="J108" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="33">
+      <c r="K108" s="22">
         <v>92.8</v>
       </c>
-      <c r="L108" s="20">
+      <c r="L108" s="15">
         <v>0.36</v>
       </c>
-      <c r="M108" s="33">
+      <c r="M108" s="22">
         <v>114.21</v>
       </c>
-      <c r="N108" s="20">
+      <c r="N108" s="15">
         <v>0.3</v>
       </c>
-      <c r="O108" s="33">
+      <c r="O108" s="22">
         <v>102.75</v>
       </c>
-      <c r="P108" s="20">
+      <c r="P108" s="15">
         <v>0.32</v>
       </c>
-      <c r="Q108" s="33">
+      <c r="Q108" s="22">
         <v>91.63</v>
       </c>
-      <c r="R108" s="23">
+      <c r="R108" s="18">
         <v>0.32</v>
       </c>
     </row>
@@ -16163,40 +16324,40 @@
       <c r="H109">
         <v>0.32</v>
       </c>
-      <c r="J109" s="13" t="s">
+      <c r="J109" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K109" s="32">
-        <f t="shared" ref="K109:R109" si="8">AVERAGE(A110:A139)</f>
+      <c r="K109" s="21">
+        <f t="shared" ref="K109:R109" si="7">AVERAGE(A110:A139)</f>
         <v>7.5273333333333321</v>
       </c>
-      <c r="L109" s="42">
-        <f t="shared" si="8"/>
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="M109" s="32">
-        <f t="shared" si="8"/>
+      <c r="L109" s="28">
+        <f t="shared" si="7"/>
+        <v>0.10500000000000004</v>
+      </c>
+      <c r="M109" s="21">
+        <f t="shared" si="7"/>
         <v>7.2333333333333325</v>
       </c>
-      <c r="N109" s="42">
-        <f t="shared" si="8"/>
-        <v>8.1000000000000016E-2</v>
-      </c>
-      <c r="O109" s="32">
-        <f t="shared" si="8"/>
-        <v>7.4930000000000003</v>
-      </c>
-      <c r="P109" s="21">
-        <f t="shared" si="8"/>
-        <v>0.1166666666666667</v>
-      </c>
-      <c r="Q109" s="32">
-        <f t="shared" si="8"/>
-        <v>7.5663333333333336</v>
-      </c>
-      <c r="R109" s="24">
-        <f t="shared" si="8"/>
-        <v>0.11633333333333337</v>
+      <c r="N109" s="28">
+        <f t="shared" si="7"/>
+        <v>0.10133333333333337</v>
+      </c>
+      <c r="O109" s="21">
+        <f t="shared" si="7"/>
+        <v>7.0930000000000017</v>
+      </c>
+      <c r="P109" s="28">
+        <f t="shared" si="7"/>
+        <v>9.6666666666666651E-2</v>
+      </c>
+      <c r="Q109" s="21">
+        <f t="shared" si="7"/>
+        <v>7.0330000000000004</v>
+      </c>
+      <c r="R109" s="36">
+        <f t="shared" si="7"/>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -16216,7 +16377,7 @@
         <v>8.7799999999999994</v>
       </c>
       <c r="F110">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G110">
         <v>9.27</v>
@@ -16224,32 +16385,32 @@
       <c r="H110">
         <v>0.13</v>
       </c>
-      <c r="J110" s="13" t="s">
+      <c r="J110" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K110" s="33">
-        <v>5.39</v>
-      </c>
-      <c r="L110" s="20">
-        <v>1.67E-2</v>
-      </c>
-      <c r="M110" s="33">
-        <v>6.75</v>
-      </c>
-      <c r="N110" s="20">
-        <v>1.38E-2</v>
-      </c>
-      <c r="O110" s="33">
-        <v>6.11</v>
-      </c>
-      <c r="P110" s="20">
-        <v>1.32E-2</v>
-      </c>
-      <c r="Q110" s="33">
-        <v>5.35</v>
-      </c>
-      <c r="R110" s="23">
-        <v>1.3100000000000001E-2</v>
+      <c r="K110" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="L110" s="15">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="M110" s="22">
+        <v>1.2</v>
+      </c>
+      <c r="N110" s="15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O110" s="22">
+        <v>0.83</v>
+      </c>
+      <c r="P110" s="15">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="Q110" s="22">
+        <v>0.59</v>
+      </c>
+      <c r="R110" s="18">
+        <v>5.3E-3</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -16263,42 +16424,42 @@
         <v>9.36</v>
       </c>
       <c r="D111">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E111">
         <v>8.9600000000000009</v>
       </c>
       <c r="F111">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="G111">
-        <v>10.07</v>
+        <v>8.07</v>
       </c>
       <c r="H111">
         <v>0.11</v>
       </c>
-      <c r="J111" s="13"/>
-      <c r="K111" s="33"/>
-      <c r="L111" s="20"/>
-      <c r="M111" s="33"/>
-      <c r="N111" s="20"/>
-      <c r="O111" s="33"/>
-      <c r="P111" s="20"/>
-      <c r="Q111" s="33"/>
-      <c r="R111" s="23"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="18"/>
     </row>
     <row r="112" spans="1:18">
       <c r="A112">
         <v>7.87</v>
       </c>
       <c r="B112">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C112">
         <v>6.84</v>
       </c>
       <c r="D112">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E112">
         <v>8.41</v>
@@ -16307,65 +16468,65 @@
         <v>0.1</v>
       </c>
       <c r="G112">
-        <v>10.14</v>
+        <v>8.14</v>
       </c>
       <c r="H112">
-        <v>0.12</v>
-      </c>
-      <c r="J112" s="13" t="s">
+        <v>0.11</v>
+      </c>
+      <c r="J112" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K112" s="32">
-        <f t="shared" ref="K112:R112" si="9">_xlfn.STDEV.P(A109:A139)</f>
-        <v>15.299873796518257</v>
-      </c>
-      <c r="L112" s="21">
-        <f t="shared" si="9"/>
-        <v>4.7420452039094889E-2</v>
-      </c>
-      <c r="M112" s="32">
-        <f t="shared" si="9"/>
-        <v>19.186269245881078</v>
-      </c>
-      <c r="N112" s="21">
-        <f t="shared" si="9"/>
-        <v>3.9137421646717553E-2</v>
-      </c>
-      <c r="O112" s="32">
-        <f t="shared" si="9"/>
-        <v>17.352504100076857</v>
-      </c>
-      <c r="P112" s="21">
-        <f t="shared" si="9"/>
-        <v>3.7535969568487336E-2</v>
-      </c>
-      <c r="Q112" s="32">
-        <f t="shared" si="9"/>
-        <v>15.19616068221538</v>
-      </c>
-      <c r="R112" s="24">
-        <f t="shared" si="9"/>
-        <v>3.734698229266141E-2</v>
+      <c r="K112" s="21">
+        <f t="shared" ref="K112:R112" si="8">_xlfn.STDEV.P(A110:A139)</f>
+        <v>2.7068110798912883</v>
+      </c>
+      <c r="L112" s="16">
+        <f t="shared" si="8"/>
+        <v>1.087811258138708E-2</v>
+      </c>
+      <c r="M112" s="21">
+        <f t="shared" si="8"/>
+        <v>3.3499008277194675</v>
+      </c>
+      <c r="N112" s="16">
+        <f t="shared" si="8"/>
+        <v>1.6878651868229236E-2</v>
+      </c>
+      <c r="O112" s="21">
+        <f t="shared" si="8"/>
+        <v>2.3329068419749013</v>
+      </c>
+      <c r="P112" s="16">
+        <f t="shared" si="8"/>
+        <v>1.7191729277637006E-2</v>
+      </c>
+      <c r="Q112" s="21">
+        <f t="shared" si="8"/>
+        <v>1.660417919280168</v>
+      </c>
+      <c r="R112" s="19">
+        <f t="shared" si="8"/>
+        <v>1.4742229591663946E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="13.8" thickBot="1">
+    <row r="113" spans="1:20" ht="13.5" thickBot="1">
       <c r="A113">
         <v>7.44</v>
       </c>
       <c r="B113">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C113">
         <v>6.81</v>
       </c>
       <c r="D113">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E113">
         <v>7.25</v>
       </c>
       <c r="F113">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G113">
         <v>10.1</v>
@@ -16373,40 +16534,40 @@
       <c r="H113">
         <v>0.11</v>
       </c>
-      <c r="J113" s="16" t="s">
+      <c r="J113" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K113" s="34">
-        <f t="shared" ref="K113:R113" si="10">_xlfn.CONFIDENCE.NORM(0.05,K112,31)</f>
-        <v>5.3858604019552621</v>
-      </c>
-      <c r="L113" s="22">
-        <f t="shared" si="10"/>
-        <v>1.6692943894628748E-2</v>
-      </c>
-      <c r="M113" s="34">
-        <f t="shared" si="10"/>
-        <v>6.7539490303611815</v>
-      </c>
-      <c r="N113" s="22">
-        <f t="shared" si="10"/>
-        <v>1.3777152170343475E-2</v>
-      </c>
-      <c r="O113" s="34">
-        <f t="shared" si="10"/>
-        <v>6.1084271641925723</v>
-      </c>
-      <c r="P113" s="22">
-        <f t="shared" si="10"/>
-        <v>1.3213409132428227E-2</v>
-      </c>
-      <c r="Q113" s="34">
-        <f t="shared" si="10"/>
-        <v>5.3493513194022775</v>
-      </c>
-      <c r="R113" s="25">
-        <f t="shared" si="10"/>
-        <v>1.3146881846067479E-2</v>
+      <c r="K113" s="23">
+        <f t="shared" ref="K113:R113" si="9">_xlfn.CONFIDENCE.NORM(0.05,K112,30)</f>
+        <v>0.96860210645804123</v>
+      </c>
+      <c r="L113" s="17">
+        <f t="shared" si="9"/>
+        <v>3.8926110650627371E-3</v>
+      </c>
+      <c r="M113" s="23">
+        <f t="shared" si="9"/>
+        <v>1.1987245885977853</v>
+      </c>
+      <c r="N113" s="17">
+        <f t="shared" si="9"/>
+        <v>6.0398370152952791E-3</v>
+      </c>
+      <c r="O113" s="23">
+        <f t="shared" si="9"/>
+        <v>0.83480465189983588</v>
+      </c>
+      <c r="P113" s="17">
+        <f t="shared" si="9"/>
+        <v>6.151868268783783E-3</v>
+      </c>
+      <c r="Q113" s="23">
+        <f t="shared" si="9"/>
+        <v>0.59416200345982062</v>
+      </c>
+      <c r="R113" s="20">
+        <f t="shared" si="9"/>
+        <v>5.2753421701477801E-3</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -16420,7 +16581,7 @@
         <v>6.92</v>
       </c>
       <c r="D114">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E114">
         <v>7.13</v>
@@ -16432,7 +16593,7 @@
         <v>9.77</v>
       </c>
       <c r="H114">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -16446,7 +16607,7 @@
         <v>6.81</v>
       </c>
       <c r="D115">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E115">
         <v>7.07</v>
@@ -16458,36 +16619,36 @@
         <v>9.91</v>
       </c>
       <c r="H115">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J115" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="4">
+      <c r="K115" s="3">
         <v>1</v>
       </c>
-      <c r="L115" s="4">
+      <c r="L115" s="3">
         <v>0.75</v>
       </c>
-      <c r="M115" s="4">
+      <c r="M115" s="3">
         <v>0.5</v>
       </c>
-      <c r="N115" s="4">
+      <c r="N115" s="3">
         <v>0.25</v>
       </c>
       <c r="P115" t="s">
         <v>12</v>
       </c>
-      <c r="Q115" s="4">
+      <c r="Q115" s="3">
         <v>1</v>
       </c>
-      <c r="R115" s="4">
+      <c r="R115" s="3">
         <v>0.75</v>
       </c>
-      <c r="S115" s="4">
+      <c r="S115" s="3">
         <v>0.5</v>
       </c>
-      <c r="T115" s="4">
+      <c r="T115" s="3">
         <v>0.25</v>
       </c>
     </row>
@@ -16502,7 +16663,7 @@
         <v>6.29</v>
       </c>
       <c r="D116">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E116">
         <v>7.04</v>
@@ -16514,7 +16675,7 @@
         <v>8.8699999999999992</v>
       </c>
       <c r="H116">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J116" t="s">
         <v>0</v>
@@ -16541,10 +16702,10 @@
         <v>7.23</v>
       </c>
       <c r="S116">
-        <v>7.49</v>
+        <v>7.09</v>
       </c>
       <c r="T116">
-        <v>7.57</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -16558,19 +16719,19 @@
         <v>6.43</v>
       </c>
       <c r="D117">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E117">
         <v>7.25</v>
       </c>
       <c r="F117">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G117">
         <v>8.85</v>
       </c>
       <c r="H117">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J117" t="s">
         <v>1</v>
@@ -16591,16 +16752,16 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>9.8000000000000004E-2</v>
+        <v>0.105</v>
       </c>
       <c r="R117">
-        <v>8.1000000000000003E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="S117">
-        <v>0.1167</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="T117">
-        <v>0.1163</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -16614,19 +16775,19 @@
         <v>6.35</v>
       </c>
       <c r="D118">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E118">
         <v>7.14</v>
       </c>
       <c r="F118">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G118">
         <v>8.82</v>
       </c>
       <c r="H118">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -16640,19 +16801,19 @@
         <v>20.21</v>
       </c>
       <c r="D119">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E119">
-        <v>29.54</v>
+        <v>17.54</v>
       </c>
       <c r="F119">
         <v>0.12</v>
       </c>
       <c r="G119">
-        <v>22.58</v>
+        <v>10.58</v>
       </c>
       <c r="H119">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -16666,7 +16827,7 @@
         <v>6.28</v>
       </c>
       <c r="D120">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E120">
         <v>9.2799999999999994</v>
@@ -16678,7 +16839,7 @@
         <v>6.13</v>
       </c>
       <c r="H120">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -16704,7 +16865,7 @@
         <v>6.41</v>
       </c>
       <c r="H121">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -16712,7 +16873,7 @@
         <v>6.68</v>
       </c>
       <c r="B122">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C122">
         <v>6.39</v>
@@ -16730,7 +16891,7 @@
         <v>6.37</v>
       </c>
       <c r="H122">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -16738,13 +16899,13 @@
         <v>6.76</v>
       </c>
       <c r="B123">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C123">
         <v>6.25</v>
       </c>
       <c r="D123">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E123">
         <v>6.64</v>
@@ -16756,7 +16917,7 @@
         <v>6.22</v>
       </c>
       <c r="H123">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -16770,7 +16931,7 @@
         <v>6.34</v>
       </c>
       <c r="D124">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E124">
         <v>6.48</v>
@@ -16782,7 +16943,7 @@
         <v>6.09</v>
       </c>
       <c r="H124">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -16796,7 +16957,7 @@
         <v>6.3</v>
       </c>
       <c r="D125">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E125">
         <v>6.34</v>
@@ -16808,7 +16969,7 @@
         <v>6.32</v>
       </c>
       <c r="H125">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -16822,7 +16983,7 @@
         <v>6.01</v>
       </c>
       <c r="D126">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E126">
         <v>5.93</v>
@@ -16834,7 +16995,7 @@
         <v>6.16</v>
       </c>
       <c r="H126">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -16894,7 +17055,7 @@
         <v>6.52</v>
       </c>
       <c r="B129">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C129">
         <v>15.99</v>
@@ -16906,7 +17067,7 @@
         <v>5.87</v>
       </c>
       <c r="F129">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G129">
         <v>6.22</v>
@@ -16920,7 +17081,7 @@
         <v>6.81</v>
       </c>
       <c r="B130">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C130">
         <v>6.01</v>
@@ -16932,7 +17093,7 @@
         <v>6.07</v>
       </c>
       <c r="F130">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G130">
         <v>6.22</v>
@@ -16946,7 +17107,7 @@
         <v>7.04</v>
       </c>
       <c r="B131">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C131">
         <v>6.14</v>
@@ -16958,7 +17119,7 @@
         <v>6.47</v>
       </c>
       <c r="F131">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="G131">
         <v>6.15</v>
@@ -16972,7 +17133,7 @@
         <v>7</v>
       </c>
       <c r="B132">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C132">
         <v>6.2</v>
@@ -16984,13 +17145,13 @@
         <v>6.24</v>
       </c>
       <c r="F132">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G132">
         <v>6.24</v>
       </c>
       <c r="H132">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -16998,25 +17159,25 @@
         <v>6.82</v>
       </c>
       <c r="B133">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C133">
         <v>6.1</v>
       </c>
       <c r="D133">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E133">
         <v>5.63</v>
       </c>
       <c r="F133">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G133">
         <v>5.96</v>
       </c>
       <c r="H133">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -17024,25 +17185,25 @@
         <v>5.67</v>
       </c>
       <c r="B134">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C134">
         <v>5.31</v>
       </c>
       <c r="D134">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E134">
         <v>5.15</v>
       </c>
       <c r="F134">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G134">
         <v>5.48</v>
       </c>
       <c r="H134">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -17050,25 +17211,25 @@
         <v>5.75</v>
       </c>
       <c r="B135">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C135">
         <v>5.24</v>
       </c>
       <c r="D135">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="E135">
         <v>5.4</v>
       </c>
       <c r="F135">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G135">
         <v>5.41</v>
       </c>
       <c r="H135">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -17088,13 +17249,13 @@
         <v>5.52</v>
       </c>
       <c r="F136">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G136">
         <v>5.09</v>
       </c>
       <c r="H136">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -17114,13 +17275,13 @@
         <v>5.15</v>
       </c>
       <c r="F137">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G137">
         <v>5.2</v>
       </c>
       <c r="H137">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -17140,13 +17301,13 @@
         <v>5.09</v>
       </c>
       <c r="F138">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G138">
         <v>5.28</v>
       </c>
       <c r="H138">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -17166,85 +17327,87 @@
         <v>4.9400000000000004</v>
       </c>
       <c r="F139">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G139">
         <v>5.49</v>
       </c>
       <c r="H139">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="13.8" thickBot="1"/>
+    <row r="140" spans="1:18" ht="13.5" thickBot="1"/>
     <row r="141" spans="1:18">
-      <c r="A141" s="37" t="s">
+      <c r="A141" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B141" s="37"/>
-      <c r="C141" s="37"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="J141" s="12"/>
-      <c r="K141" s="35" t="s">
+      <c r="B141" s="54"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="54"/>
+      <c r="F141" s="54"/>
+      <c r="G141" s="54"/>
+      <c r="H141" s="54"/>
+      <c r="J141" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="K141" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="L141" s="35"/>
-      <c r="M141" s="35" t="s">
+      <c r="L141" s="52"/>
+      <c r="M141" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="N141" s="35"/>
-      <c r="O141" s="35" t="s">
+      <c r="N141" s="52"/>
+      <c r="O141" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="P141" s="35"/>
-      <c r="Q141" s="35" t="s">
+      <c r="P141" s="52"/>
+      <c r="Q141" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="R141" s="36"/>
+      <c r="R141" s="53"/>
     </row>
     <row r="142" spans="1:18">
-      <c r="A142" s="37" t="s">
+      <c r="A142" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37" t="s">
+      <c r="B142" s="54"/>
+      <c r="C142" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37" t="s">
+      <c r="D142" s="54"/>
+      <c r="E142" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37" t="s">
+      <c r="F142" s="54"/>
+      <c r="G142" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H142" s="37"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="8" t="s">
+      <c r="H142" s="54"/>
+      <c r="J142" s="58"/>
+      <c r="K142" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L142" s="9" t="s">
+      <c r="L142" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M142" s="8" t="s">
+      <c r="M142" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="N142" s="9" t="s">
+      <c r="N142" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="O142" s="8" t="s">
+      <c r="O142" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P142" s="9" t="s">
+      <c r="P142" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Q142" s="8" t="s">
+      <c r="Q142" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="R142" s="14" t="s">
+      <c r="R142" s="31" t="s">
         <v>1</v>
       </c>
     </row>
@@ -17270,34 +17433,34 @@
       <c r="G143" t="s">
         <v>0</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H143" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J143" s="13" t="s">
+      <c r="J143" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="33">
+      <c r="K143" s="22">
         <v>221.71</v>
       </c>
-      <c r="L143" s="20">
+      <c r="L143" s="15">
         <v>222.69</v>
       </c>
-      <c r="M143" s="33">
+      <c r="M143" s="22">
         <v>209.77</v>
       </c>
-      <c r="N143" s="20">
+      <c r="N143" s="15">
         <v>269.60000000000002</v>
       </c>
-      <c r="O143" s="33">
+      <c r="O143" s="22">
         <v>231.8</v>
       </c>
-      <c r="P143" s="20">
+      <c r="P143" s="15">
         <v>104.14</v>
       </c>
-      <c r="Q143" s="33">
+      <c r="Q143" s="22">
         <v>243.44</v>
       </c>
-      <c r="R143" s="23">
+      <c r="R143" s="18">
         <v>104.5</v>
       </c>
     </row>
@@ -17326,51 +17489,51 @@
       <c r="H144">
         <v>104.5</v>
       </c>
-      <c r="J144" s="13" t="s">
+      <c r="J144" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="K144" s="32">
-        <f>AVERAGE(A145:A174)</f>
-        <v>13.533000000000003</v>
-      </c>
-      <c r="L144" s="38">
-        <f>AVERAGE(B145:B174)</f>
+      <c r="K144" s="21">
+        <f t="shared" ref="K144:R144" si="10">AVERAGE(A145:A174)</f>
+        <v>14.342000000000002</v>
+      </c>
+      <c r="L144" s="24">
+        <f t="shared" si="10"/>
         <v>140.13900000000004</v>
       </c>
-      <c r="M144" s="32">
-        <f>AVERAGE(C145:C174)</f>
-        <v>16.422666666666668</v>
-      </c>
-      <c r="N144" s="38">
-        <f>AVERAGE(D145:D174)</f>
+      <c r="M144" s="21">
+        <f t="shared" si="10"/>
+        <v>13.745666666666668</v>
+      </c>
+      <c r="N144" s="24">
+        <f t="shared" si="10"/>
         <v>106.0953333333333</v>
       </c>
-      <c r="O144" s="32">
-        <f>AVERAGE(E145:E174)</f>
-        <v>13.141999999999998</v>
-      </c>
-      <c r="P144" s="38">
-        <f>AVERAGE(F145:F174)</f>
+      <c r="O144" s="21">
+        <f t="shared" si="10"/>
+        <v>12.141999999999996</v>
+      </c>
+      <c r="P144" s="24">
+        <f t="shared" si="10"/>
         <v>105.46266666666664</v>
       </c>
-      <c r="Q144" s="32">
-        <f>AVERAGE(G145:G174)</f>
-        <v>13.199666666666671</v>
-      </c>
-      <c r="R144" s="23">
-        <f>AVERAGE(H145:H174)</f>
+      <c r="Q144" s="21">
+        <f t="shared" si="10"/>
+        <v>11.399666666666667</v>
+      </c>
+      <c r="R144" s="18">
+        <f t="shared" si="10"/>
         <v>106.02999999999997</v>
       </c>
     </row>
     <row r="145" spans="1:20">
       <c r="A145">
-        <v>18.12</v>
+        <v>23.17</v>
       </c>
       <c r="B145">
         <v>144.62</v>
       </c>
       <c r="C145">
-        <v>23.17</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D145">
         <v>116.75</v>
@@ -17387,43 +17550,43 @@
       <c r="H145">
         <v>105.04</v>
       </c>
-      <c r="J145" s="13" t="s">
+      <c r="J145" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="K145" s="33">
-        <v>13.22</v>
-      </c>
-      <c r="L145" s="20">
-        <v>5.19</v>
-      </c>
-      <c r="M145" s="33">
-        <v>12.3</v>
-      </c>
-      <c r="N145" s="20">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="O145" s="33">
-        <v>13.82</v>
-      </c>
-      <c r="P145" s="20">
-        <v>0.91</v>
-      </c>
-      <c r="Q145" s="33">
-        <v>14.58</v>
-      </c>
-      <c r="R145" s="23">
-        <v>1.54</v>
+      <c r="K145" s="22">
+        <v>1.26</v>
+      </c>
+      <c r="L145" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="M145" s="22">
+        <v>2.79</v>
+      </c>
+      <c r="N145" s="15">
+        <v>1.05</v>
+      </c>
+      <c r="O145" s="22">
+        <v>1.51</v>
+      </c>
+      <c r="P145" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="Q145" s="22">
+        <v>1.53</v>
+      </c>
+      <c r="R145" s="18">
+        <v>1.59</v>
       </c>
     </row>
     <row r="146" spans="1:20">
       <c r="A146">
-        <v>17.899999999999999</v>
+        <v>23.14</v>
       </c>
       <c r="B146">
         <v>143.94999999999999</v>
       </c>
       <c r="C146">
-        <v>23.14</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D146">
         <v>108.12</v>
@@ -17440,25 +17603,25 @@
       <c r="H146">
         <v>103.76</v>
       </c>
-      <c r="J146" s="13"/>
-      <c r="K146" s="33"/>
-      <c r="L146" s="20"/>
-      <c r="M146" s="33"/>
-      <c r="N146" s="20"/>
-      <c r="O146" s="33"/>
-      <c r="P146" s="20"/>
-      <c r="Q146" s="33"/>
-      <c r="R146" s="23"/>
+      <c r="J146" s="32"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="22"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="22"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="22"/>
+      <c r="R146" s="18"/>
     </row>
     <row r="147" spans="1:20">
       <c r="A147">
-        <v>17.760000000000002</v>
+        <v>22.88</v>
       </c>
       <c r="B147">
         <v>143.28</v>
       </c>
       <c r="C147">
-        <v>22.88</v>
+        <v>18.05</v>
       </c>
       <c r="D147">
         <v>105.36</v>
@@ -17475,51 +17638,51 @@
       <c r="H147">
         <v>119.96</v>
       </c>
-      <c r="J147" s="13" t="s">
+      <c r="J147" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K147" s="32">
-        <f>_xlfn.STDEV.P(A144:A174)</f>
-        <v>37.551139074409456</v>
-      </c>
-      <c r="L147" s="38">
-        <f>_xlfn.STDEV.P(B144:B174)</f>
-        <v>14.731500026408929</v>
-      </c>
-      <c r="M147" s="32">
-        <f>_xlfn.STDEV.P(C144:C174)</f>
-        <v>34.94739572039493</v>
-      </c>
-      <c r="N147" s="38">
-        <f>_xlfn.STDEV.P(D144:D174)</f>
-        <v>29.031940862066502</v>
-      </c>
-      <c r="O147" s="32">
-        <f>_xlfn.STDEV.P(E144:E174)</f>
-        <v>39.266484258922283</v>
-      </c>
-      <c r="P147" s="38">
-        <f>_xlfn.STDEV.P(F144:F174)</f>
-        <v>2.5888545231309328</v>
-      </c>
-      <c r="Q147" s="32">
-        <f>_xlfn.STDEV.P(G144:G174)</f>
-        <v>41.427471747629312</v>
-      </c>
-      <c r="R147" s="40">
-        <f>_xlfn.STDEV.P(H144:H174)</f>
-        <v>4.3850993555403557</v>
+      <c r="K147" s="21">
+        <f t="shared" ref="K147:R147" si="11">_xlfn.STDEV.P(A145:A174)</f>
+        <v>3.512075739502202</v>
+      </c>
+      <c r="L147" s="24">
+        <f t="shared" si="11"/>
+        <v>2.1030951000846341</v>
+      </c>
+      <c r="M147" s="21">
+        <f t="shared" si="11"/>
+        <v>7.7927434977819088</v>
+      </c>
+      <c r="N147" s="24">
+        <f t="shared" si="11"/>
+        <v>2.9272577990710382</v>
+      </c>
+      <c r="O147" s="21">
+        <f t="shared" si="11"/>
+        <v>4.232651178634983</v>
+      </c>
+      <c r="P147" s="24">
+        <f t="shared" si="11"/>
+        <v>2.6209043392606985</v>
+      </c>
+      <c r="Q147" s="21">
+        <f t="shared" si="11"/>
+        <v>4.2754746195273086</v>
+      </c>
+      <c r="R147" s="26">
+        <f t="shared" si="11"/>
+        <v>4.4491070265091759</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="13.8" thickBot="1">
+    <row r="148" spans="1:20" ht="13.5" thickBot="1">
       <c r="A148">
-        <v>17.82</v>
+        <v>15.81</v>
       </c>
       <c r="B148">
         <v>139.52000000000001</v>
       </c>
       <c r="C148">
-        <v>15.81</v>
+        <v>18.34</v>
       </c>
       <c r="D148">
         <v>109.55</v>
@@ -17536,51 +17699,51 @@
       <c r="H148">
         <v>103.43</v>
       </c>
-      <c r="J148" s="16" t="s">
+      <c r="J148" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K148" s="34">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,K147,31)</f>
-        <v>13.218749100741023</v>
-      </c>
-      <c r="L148" s="39">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,L147,31)</f>
-        <v>5.1857815109360121</v>
-      </c>
-      <c r="M148" s="34">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,M147,31)</f>
-        <v>12.302179564694766</v>
-      </c>
-      <c r="N148" s="39">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,N147,31)</f>
-        <v>10.219821598560745</v>
-      </c>
-      <c r="O148" s="34">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,O147,31)</f>
-        <v>13.822584781206222</v>
-      </c>
-      <c r="P148" s="39">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,P147,31)</f>
-        <v>0.91132837093902519</v>
-      </c>
-      <c r="Q148" s="34">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,Q147,31)</f>
-        <v>14.583295431459856</v>
-      </c>
-      <c r="R148" s="41">
-        <f>_xlfn.CONFIDENCE.NORM(0.05,R147,31)</f>
-        <v>1.5436423392602694</v>
+      <c r="K148" s="23">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,K147,30)</f>
+        <v>1.2567570690816883</v>
+      </c>
+      <c r="L148" s="25">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,L147,30)</f>
+        <v>0.7525690873503349</v>
+      </c>
+      <c r="M148" s="23">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,M147,30)</f>
+        <v>2.7885462059442685</v>
+      </c>
+      <c r="N148" s="25">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,N147,30)</f>
+        <v>1.0474865022496551</v>
+      </c>
+      <c r="O148" s="23">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,O147,30)</f>
+        <v>1.5146069402422466</v>
+      </c>
+      <c r="P148" s="25">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P147,30)</f>
+        <v>0.93786133900962509</v>
+      </c>
+      <c r="Q148" s="23">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,Q147,30)</f>
+        <v>1.5299308301739198</v>
+      </c>
+      <c r="R148" s="27">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,R147,30)</f>
+        <v>1.5920632473202141</v>
       </c>
     </row>
     <row r="149" spans="1:20">
       <c r="A149">
-        <v>16.82</v>
+        <v>15.26</v>
       </c>
       <c r="B149">
         <v>141.09</v>
       </c>
       <c r="C149">
-        <v>15.26</v>
+        <v>18.29</v>
       </c>
       <c r="D149">
         <v>105.13</v>
@@ -17626,31 +17789,31 @@
       <c r="J150" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="4">
+      <c r="K150" s="3">
         <v>1</v>
       </c>
-      <c r="L150" s="4">
+      <c r="L150" s="3">
         <v>0.75</v>
       </c>
-      <c r="M150" s="4">
+      <c r="M150" s="3">
         <v>0.5</v>
       </c>
-      <c r="N150" s="4">
+      <c r="N150" s="3">
         <v>0.25</v>
       </c>
       <c r="P150" t="s">
         <v>12</v>
       </c>
-      <c r="Q150" s="4">
+      <c r="Q150" s="3">
         <v>1</v>
       </c>
-      <c r="R150" s="4">
+      <c r="R150" s="3">
         <v>0.75</v>
       </c>
-      <c r="S150" s="4">
+      <c r="S150" s="3">
         <v>0.5</v>
       </c>
-      <c r="T150" s="4">
+      <c r="T150" s="3">
         <v>0.25</v>
       </c>
     </row>
@@ -17698,16 +17861,16 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>13.53</v>
+        <v>14.34</v>
       </c>
       <c r="R151">
-        <v>16.420000000000002</v>
+        <v>13.75</v>
       </c>
       <c r="S151">
-        <v>13.14</v>
+        <v>12.14</v>
       </c>
       <c r="T151">
-        <v>13.2</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -17768,13 +17931,13 @@
     </row>
     <row r="153" spans="1:20">
       <c r="A153">
-        <v>21.43</v>
+        <v>15.44</v>
       </c>
       <c r="B153">
         <v>141.94999999999999</v>
       </c>
       <c r="C153">
-        <v>15.44</v>
+        <v>21.43</v>
       </c>
       <c r="D153">
         <v>106.9</v>
@@ -17786,7 +17949,7 @@
         <v>104.25</v>
       </c>
       <c r="G153">
-        <v>21.66</v>
+        <v>14.66</v>
       </c>
       <c r="H153">
         <v>107.28</v>
@@ -17794,25 +17957,25 @@
     </row>
     <row r="154" spans="1:20">
       <c r="A154">
-        <v>49.21</v>
+        <v>15.06</v>
       </c>
       <c r="B154">
         <v>141.52000000000001</v>
       </c>
       <c r="C154">
-        <v>44.06</v>
+        <v>49.21</v>
       </c>
       <c r="D154">
         <v>102.95</v>
       </c>
       <c r="E154">
-        <v>44.16</v>
+        <v>14.16</v>
       </c>
       <c r="F154">
         <v>103.2</v>
       </c>
       <c r="G154">
-        <v>46.87</v>
+        <v>12.87</v>
       </c>
       <c r="H154">
         <v>103.55</v>
@@ -17820,13 +17983,13 @@
     </row>
     <row r="155" spans="1:20">
       <c r="A155">
-        <v>13.56</v>
+        <v>14.97</v>
       </c>
       <c r="B155">
         <v>142.35</v>
       </c>
       <c r="C155">
-        <v>14.97</v>
+        <v>13.56</v>
       </c>
       <c r="D155">
         <v>106.87</v>
@@ -17846,13 +18009,13 @@
     </row>
     <row r="156" spans="1:20">
       <c r="A156">
-        <v>13.6</v>
+        <v>14.81</v>
       </c>
       <c r="B156">
         <v>142.66999999999999</v>
       </c>
       <c r="C156">
-        <v>14.81</v>
+        <v>13.6</v>
       </c>
       <c r="D156">
         <v>103.54</v>
@@ -17872,13 +18035,13 @@
     </row>
     <row r="157" spans="1:20">
       <c r="A157">
-        <v>13.38</v>
+        <v>15.91</v>
       </c>
       <c r="B157">
         <v>139.52000000000001</v>
       </c>
       <c r="C157">
-        <v>15.91</v>
+        <v>13.38</v>
       </c>
       <c r="D157">
         <v>105.08</v>
@@ -17898,13 +18061,13 @@
     </row>
     <row r="158" spans="1:20">
       <c r="A158">
-        <v>13.58</v>
+        <v>14.58</v>
       </c>
       <c r="B158">
         <v>141.36000000000001</v>
       </c>
       <c r="C158">
-        <v>14.58</v>
+        <v>13.58</v>
       </c>
       <c r="D158">
         <v>106.28</v>
@@ -17924,13 +18087,13 @@
     </row>
     <row r="159" spans="1:20">
       <c r="A159">
-        <v>13.38</v>
+        <v>15.59</v>
       </c>
       <c r="B159">
         <v>137.22999999999999</v>
       </c>
       <c r="C159">
-        <v>15.59</v>
+        <v>13.38</v>
       </c>
       <c r="D159">
         <v>102.95</v>
@@ -17950,13 +18113,13 @@
     </row>
     <row r="160" spans="1:20">
       <c r="A160">
-        <v>14.04</v>
+        <v>15.55</v>
       </c>
       <c r="B160">
         <v>139.9</v>
       </c>
       <c r="C160">
-        <v>32.549999999999997</v>
+        <v>14.04</v>
       </c>
       <c r="D160">
         <v>103.88</v>
@@ -17976,13 +18139,13 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161">
-        <v>10.16</v>
+        <v>14.35</v>
       </c>
       <c r="B161">
         <v>137.01</v>
       </c>
       <c r="C161">
-        <v>14.35</v>
+        <v>10.16</v>
       </c>
       <c r="D161">
         <v>108.85</v>
@@ -18002,13 +18165,13 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162">
-        <v>8.85</v>
+        <v>14.5</v>
       </c>
       <c r="B162">
         <v>140.09</v>
       </c>
       <c r="C162">
-        <v>29.5</v>
+        <v>8.85</v>
       </c>
       <c r="D162">
         <v>111.09</v>
@@ -18028,13 +18191,13 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163">
-        <v>8.91</v>
+        <v>13.68</v>
       </c>
       <c r="B163">
         <v>138.02000000000001</v>
       </c>
       <c r="C163">
-        <v>13.68</v>
+        <v>8.91</v>
       </c>
       <c r="D163">
         <v>107.7</v>
@@ -18054,13 +18217,13 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164">
-        <v>8.5399999999999991</v>
+        <v>11.93</v>
       </c>
       <c r="B164">
         <v>139.49</v>
       </c>
       <c r="C164">
-        <v>11.93</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="D164">
         <v>103.34</v>
@@ -18080,13 +18243,13 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165">
-        <v>8.5</v>
+        <v>12.12</v>
       </c>
       <c r="B165">
         <v>138.93</v>
       </c>
       <c r="C165">
-        <v>12.12</v>
+        <v>8.5</v>
       </c>
       <c r="D165">
         <v>104.43</v>
@@ -18106,13 +18269,13 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166">
-        <v>8.2799999999999994</v>
+        <v>12.41</v>
       </c>
       <c r="B166">
         <v>139.91</v>
       </c>
       <c r="C166">
-        <v>12.41</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="D166">
         <v>105.66</v>
@@ -18132,13 +18295,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167">
-        <v>8.1300000000000008</v>
+        <v>11.21</v>
       </c>
       <c r="B167">
         <v>137.44</v>
       </c>
       <c r="C167">
-        <v>11.21</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="D167">
         <v>104.55</v>
@@ -18158,13 +18321,13 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168">
-        <v>11.34</v>
+        <v>11.91</v>
       </c>
       <c r="B168">
         <v>139.22999999999999</v>
       </c>
       <c r="C168">
-        <v>11.91</v>
+        <v>11.34</v>
       </c>
       <c r="D168">
         <v>106.49</v>
@@ -18184,13 +18347,13 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169">
-        <v>8.3800000000000008</v>
+        <v>10.23</v>
       </c>
       <c r="B169">
         <v>137.06</v>
       </c>
       <c r="C169">
-        <v>10.23</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D169">
         <v>103.31</v>
@@ -18210,13 +18373,13 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170">
-        <v>8.86</v>
+        <v>10.09</v>
       </c>
       <c r="B170">
         <v>139.94</v>
       </c>
       <c r="C170">
-        <v>10.09</v>
+        <v>8.86</v>
       </c>
       <c r="D170">
         <v>105.75</v>
@@ -18236,13 +18399,13 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171">
-        <v>8.3000000000000007</v>
+        <v>11.39</v>
       </c>
       <c r="B171">
         <v>137.88</v>
       </c>
       <c r="C171">
-        <v>11.39</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D171">
         <v>105.7</v>
@@ -18262,13 +18425,13 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172">
-        <v>7.8</v>
+        <v>9.94</v>
       </c>
       <c r="B172">
         <v>141.44</v>
       </c>
       <c r="C172">
-        <v>9.94</v>
+        <v>7.8</v>
       </c>
       <c r="D172">
         <v>102.68</v>
@@ -18288,13 +18451,13 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173">
-        <v>7.56</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="B173">
         <v>137.27000000000001</v>
       </c>
       <c r="C173">
-        <v>9.9600000000000009</v>
+        <v>7.56</v>
       </c>
       <c r="D173">
         <v>107.53</v>
@@ -18306,7 +18469,7 @@
         <v>105.44</v>
       </c>
       <c r="G173">
-        <v>21.78</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="H173">
         <v>104.77</v>
@@ -18314,13 +18477,13 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174">
-        <v>7.65</v>
+        <v>10.24</v>
       </c>
       <c r="B174">
         <v>139.03</v>
       </c>
       <c r="C174">
-        <v>10.24</v>
+        <v>7.65</v>
       </c>
       <c r="D174">
         <v>103.7</v>
@@ -18339,21 +18502,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="O141:P141"/>
-    <mergeCell ref="Q141:R141"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+  <mergeCells count="50">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J106:J107"/>
+    <mergeCell ref="J141:J142"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="Q106:R106"/>
     <mergeCell ref="A142:B142"/>
     <mergeCell ref="C142:D142"/>
     <mergeCell ref="E142:F142"/>
@@ -18369,6 +18528,20 @@
     <mergeCell ref="E107:F107"/>
     <mergeCell ref="G107:H107"/>
     <mergeCell ref="A141:H141"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="O141:P141"/>
+    <mergeCell ref="Q141:R141"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
@@ -18380,11 +18553,6 @@
     <mergeCell ref="K71:L71"/>
     <mergeCell ref="M71:N71"/>
     <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="O106:P106"/>
-    <mergeCell ref="Q106:R106"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
